--- a/raw_data/20200818_saline/20200818_Sensor3_Test_23.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_23.xlsx
@@ -1,810 +1,1226 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781A1100-C4FF-4AB4-8897-3E6CC98FF1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>20354.274710</v>
+        <v>20354.274710000002</v>
       </c>
       <c r="B2" s="1">
-        <v>5.653965</v>
+        <v>5.6539650000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>1139.910000</v>
+        <v>1139.9100000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-256.874000</v>
+        <v>-256.87400000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>20365.023542</v>
+        <v>20365.023541999999</v>
       </c>
       <c r="G2" s="1">
-        <v>5.656951</v>
+        <v>5.6569510000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>1161.880000</v>
+        <v>1161.8800000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-214.851000</v>
+        <v>-214.851</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>20375.500518</v>
+        <v>20375.500518000001</v>
       </c>
       <c r="L2" s="1">
-        <v>5.659861</v>
+        <v>5.6598610000000003</v>
       </c>
       <c r="M2" s="1">
-        <v>1188.250000</v>
+        <v>1188.25</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.247000</v>
+        <v>-149.24700000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>20385.936828</v>
+        <v>20385.936828000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.662760</v>
+        <v>5.6627599999999996</v>
       </c>
       <c r="R2" s="1">
-        <v>1195.810000</v>
+        <v>1195.81</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.263000</v>
+        <v>-127.26300000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>20396.256589</v>
+        <v>20396.256589000001</v>
       </c>
       <c r="V2" s="1">
-        <v>5.665627</v>
+        <v>5.6656269999999997</v>
       </c>
       <c r="W2" s="1">
-        <v>1202.750000</v>
+        <v>1202.75</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.515000</v>
+        <v>-106.515</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>20406.389856</v>
+        <v>20406.389856000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.668442</v>
+        <v>5.6684419999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1209.990000</v>
+        <v>1209.99</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.783600</v>
+        <v>-89.783600000000007</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>20416.615874</v>
+        <v>20416.615873999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.671282</v>
+        <v>5.6712819999999997</v>
       </c>
       <c r="AG2" s="1">
-        <v>1214.370000</v>
+        <v>1214.3699999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.381800</v>
+        <v>-85.381799999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>20426.721861</v>
+        <v>20426.721861000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.674089</v>
+        <v>5.6740890000000004</v>
       </c>
       <c r="AL2" s="1">
-        <v>1221.380000</v>
+        <v>1221.3800000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.914400</v>
+        <v>-88.914400000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>20436.960285</v>
+        <v>20436.960285000001</v>
       </c>
       <c r="AP2" s="1">
         <v>5.676933</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1229.230000</v>
+        <v>1229.23</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.960000</v>
+        <v>-100.96</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>20447.909963</v>
+        <v>20447.909962999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>5.679975</v>
+        <v>5.6799749999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1239.170000</v>
+        <v>1239.17</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.347000</v>
+        <v>-120.34699999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>20458.924122</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.683034</v>
+        <v>5.6830340000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1247.580000</v>
+        <v>1247.58</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.830000</v>
+        <v>-137.83000000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>20470.290940</v>
+        <v>20470.290939999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.686192</v>
+        <v>5.6861920000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1287.610000</v>
+        <v>1287.6099999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.584000</v>
+        <v>-219.584</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>20481.310594</v>
+        <v>20481.310593999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.689253</v>
+        <v>5.6892529999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1356.920000</v>
+        <v>1356.92</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.611000</v>
+        <v>-355.61099999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>20492.023646</v>
+        <v>20492.023646000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.692229</v>
+        <v>5.6922290000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1470.480000</v>
+        <v>1470.48</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-577.343000</v>
+        <v>-577.34299999999996</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>20502.789809</v>
+        <v>20502.789809000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.695219</v>
+        <v>5.6952189999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1601.160000</v>
+        <v>1601.16</v>
       </c>
       <c r="BV2" s="1">
-        <v>-828.009000</v>
+        <v>-828.00900000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>20513.533169</v>
+        <v>20513.533168999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.698204</v>
+        <v>5.6982039999999996</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1752.720000</v>
+        <v>1752.72</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1101.260000</v>
+        <v>-1101.26</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>20525.246676</v>
+        <v>20525.246675999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.701457</v>
+        <v>5.7014570000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>2170.300000</v>
+        <v>2170.3000000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1762.380000</v>
+        <v>-1762.38</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>20354.655142</v>
       </c>
       <c r="B3" s="1">
-        <v>5.654071</v>
+        <v>5.6540710000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1139.920000</v>
+        <v>1139.92</v>
       </c>
       <c r="D3" s="1">
-        <v>-256.953000</v>
+        <v>-256.95299999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>20365.707494</v>
+        <v>20365.707493999998</v>
       </c>
       <c r="G3" s="1">
-        <v>5.657141</v>
+        <v>5.6571410000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>1161.780000</v>
+        <v>1161.78</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.468000</v>
+        <v>-215.46799999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>20376.139849</v>
+        <v>20376.139848999999</v>
       </c>
       <c r="L3" s="1">
-        <v>5.660039</v>
+        <v>5.6600390000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>1188.260000</v>
+        <v>1188.26</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.088000</v>
+        <v>-149.08799999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>20386.349002</v>
+        <v>20386.349001999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>5.662875</v>
+        <v>5.6628749999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>1195.850000</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.312000</v>
+        <v>-127.312</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>20396.602303</v>
       </c>
       <c r="V3" s="1">
-        <v>5.665723</v>
+        <v>5.6657229999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>1202.800000</v>
+        <v>1202.8</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.465000</v>
+        <v>-106.465</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>20406.742015</v>
@@ -813,88 +1229,88 @@
         <v>5.668539</v>
       </c>
       <c r="AB3" s="1">
-        <v>1209.970000</v>
+        <v>1209.97</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.628200</v>
+        <v>-89.628200000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>20416.993331</v>
+        <v>20416.993331000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>5.671387</v>
+        <v>5.6713870000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.414400</v>
+        <v>-85.414400000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>20427.102822</v>
+        <v>20427.102822000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.674195</v>
+        <v>5.6741950000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1221.370000</v>
+        <v>1221.3699999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.919500</v>
+        <v>-88.919499999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>20437.377415</v>
+        <v>20437.377414999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>5.677049</v>
+        <v>5.6770490000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1229.240000</v>
+        <v>1229.24</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.949000</v>
+        <v>-100.949</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>20448.345069</v>
+        <v>20448.345068999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.680096</v>
+        <v>5.6800959999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1239.150000</v>
+        <v>1239.1500000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.351000</v>
+        <v>-120.351</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>20459.347210</v>
+        <v>20459.34721</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.683152</v>
+        <v>5.6831519999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1247.600000</v>
+        <v>1247.5999999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.819000</v>
+        <v>-137.81899999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>20470.654046</v>
@@ -903,195 +1319,195 @@
         <v>5.686293</v>
       </c>
       <c r="BF3" s="1">
-        <v>1287.620000</v>
+        <v>1287.6199999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.621000</v>
+        <v>-219.62100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>20481.690494</v>
+        <v>20481.690493999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.689358</v>
+        <v>5.6893580000000004</v>
       </c>
       <c r="BK3" s="1">
-        <v>1356.950000</v>
+        <v>1356.95</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.636000</v>
+        <v>-355.63600000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>20492.460658</v>
       </c>
       <c r="BO3" s="1">
-        <v>5.692350</v>
+        <v>5.6923500000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1470.460000</v>
+        <v>1470.46</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-577.346000</v>
+        <v>-577.346</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>20503.238688</v>
+        <v>20503.238688000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.695344</v>
+        <v>5.6953440000000004</v>
       </c>
       <c r="BU3" s="1">
-        <v>1601.160000</v>
+        <v>1601.16</v>
       </c>
       <c r="BV3" s="1">
-        <v>-827.785000</v>
+        <v>-827.78499999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>20514.446322</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.698457</v>
+        <v>5.6984570000000003</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1752.950000</v>
+        <v>1752.95</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1101.310000</v>
+        <v>-1101.31</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>20525.784834</v>
+        <v>20525.784833999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.701607</v>
+        <v>5.7016070000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2169.820000</v>
+        <v>2169.8200000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1762.970000</v>
+        <v>-1762.97</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>20355.311347</v>
+        <v>20355.311346999999</v>
       </c>
       <c r="B4" s="1">
-        <v>5.654253</v>
+        <v>5.6542529999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1140.220000</v>
+        <v>1140.22</v>
       </c>
       <c r="D4" s="1">
-        <v>-257.015000</v>
+        <v>-257.01499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>20366.094903</v>
+        <v>20366.094903000001</v>
       </c>
       <c r="G4" s="1">
-        <v>5.657249</v>
+        <v>5.6572490000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1161.710000</v>
+        <v>1161.71</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.190000</v>
+        <v>-215.19</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>20376.536151</v>
       </c>
       <c r="L4" s="1">
-        <v>5.660149</v>
+        <v>5.6601489999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>1188.210000</v>
+        <v>1188.21</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.266000</v>
+        <v>-149.26599999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>20386.697196</v>
+        <v>20386.697196000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.662971</v>
+        <v>5.6629709999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>1195.820000</v>
+        <v>1195.82</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.344000</v>
+        <v>-127.34399999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>20396.950530</v>
+        <v>20396.950529999998</v>
       </c>
       <c r="V4" s="1">
-        <v>5.665820</v>
+        <v>5.6658200000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1202.730000</v>
+        <v>1202.73</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.602000</v>
+        <v>-106.602</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>20407.090736</v>
+        <v>20407.090735999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.668636</v>
+        <v>5.6686360000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1209.920000</v>
+        <v>1209.92</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.829600</v>
+        <v>-89.829599999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>20417.419889</v>
+        <v>20417.419889000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.671506</v>
+        <v>5.6715059999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1214.370000</v>
+        <v>1214.3699999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.480200</v>
+        <v>-85.480199999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>20427.534806</v>
@@ -1100,512 +1516,512 @@
         <v>5.674315</v>
       </c>
       <c r="AL4" s="1">
-        <v>1221.350000</v>
+        <v>1221.3499999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.886500</v>
+        <v>-88.886499999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>20437.724616</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.677146</v>
+        <v>5.6771459999999996</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1229.240000</v>
+        <v>1229.24</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.925000</v>
+        <v>-100.925</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>20448.711745</v>
+        <v>20448.711745000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.680198</v>
+        <v>5.6801979999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1239.160000</v>
+        <v>1239.1600000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.330000</v>
+        <v>-120.33</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>20459.704329</v>
       </c>
       <c r="AZ4" s="1">
-        <v>5.683251</v>
+        <v>5.6832510000000003</v>
       </c>
       <c r="BA4" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.810000</v>
+        <v>-137.81</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>20471.015594</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.686393</v>
+        <v>5.6863929999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1287.590000</v>
+        <v>1287.5899999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.622000</v>
+        <v>-219.62200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>20482.438955</v>
+        <v>20482.438955000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.689566</v>
+        <v>5.6895660000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1356.940000</v>
+        <v>1356.94</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.634000</v>
+        <v>-355.63400000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>20492.883214</v>
+        <v>20492.883214000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.692468</v>
+        <v>5.6924679999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1470.470000</v>
+        <v>1470.47</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-577.353000</v>
+        <v>-577.35299999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>20503.673183</v>
+        <v>20503.673182999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.695465</v>
+        <v>5.6954650000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>1601.330000</v>
+        <v>1601.33</v>
       </c>
       <c r="BV4" s="1">
-        <v>-827.763000</v>
+        <v>-827.76300000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>20514.868417</v>
+        <v>20514.868417000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.698575</v>
+        <v>5.6985749999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1752.860000</v>
+        <v>1752.86</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1101.190000</v>
+        <v>-1101.19</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>20526.304146</v>
+        <v>20526.304145999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>5.701751</v>
+        <v>5.7017509999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>2169.600000</v>
+        <v>2169.6</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1765.480000</v>
+        <v>-1765.48</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>20355.678885</v>
+        <v>20355.678885000001</v>
       </c>
       <c r="B5" s="1">
-        <v>5.654355</v>
+        <v>5.6543549999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>1140.310000</v>
+        <v>1140.31</v>
       </c>
       <c r="D5" s="1">
-        <v>-257.196000</v>
+        <v>-257.19600000000003</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>20366.441109</v>
+        <v>20366.441108999999</v>
       </c>
       <c r="G5" s="1">
-        <v>5.657345</v>
+        <v>5.6573450000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>1161.940000</v>
+        <v>1161.94</v>
       </c>
       <c r="I5" s="1">
-        <v>-215.481000</v>
+        <v>-215.48099999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>20376.880376</v>
+        <v>20376.880376000001</v>
       </c>
       <c r="L5" s="1">
-        <v>5.660245</v>
+        <v>5.6602449999999997</v>
       </c>
       <c r="M5" s="1">
-        <v>1188.210000</v>
+        <v>1188.21</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.452000</v>
+        <v>-149.452</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>20387.044889</v>
+        <v>20387.044889000001</v>
       </c>
       <c r="Q5" s="1">
         <v>5.663068</v>
       </c>
       <c r="R5" s="1">
-        <v>1195.810000</v>
+        <v>1195.81</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.290000</v>
+        <v>-127.29</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>20397.367132</v>
+        <v>20397.367131999999</v>
       </c>
       <c r="V5" s="1">
-        <v>5.665935</v>
+        <v>5.6659350000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1202.840000</v>
+        <v>1202.8399999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.598000</v>
+        <v>-106.598</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>20407.513792</v>
+        <v>20407.513792000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>5.668754</v>
+        <v>5.6687539999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>1210.110000</v>
+        <v>1210.1099999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.845400</v>
+        <v>-89.845399999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>20417.684257</v>
+        <v>20417.684257000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.671579</v>
+        <v>5.6715790000000004</v>
       </c>
       <c r="AG5" s="1">
-        <v>1214.650000</v>
+        <v>1214.6500000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.288400</v>
+        <v>-85.288399999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>20427.824469</v>
+        <v>20427.824468999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.674396</v>
+        <v>5.6743959999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>1221.330000</v>
+        <v>1221.33</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.939600</v>
+        <v>-88.939599999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>20438.083223</v>
+        <v>20438.083223000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.677245</v>
+        <v>5.6772450000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1229.250000</v>
+        <v>1229.25</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.952000</v>
+        <v>-100.952</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>20449.074567</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.680298</v>
+        <v>5.6802979999999996</v>
       </c>
       <c r="AV5" s="1">
-        <v>1239.210000</v>
+        <v>1239.21</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.356000</v>
+        <v>-120.35599999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>20460.065417</v>
+        <v>20460.065417000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.683352</v>
+        <v>5.6833520000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1247.560000</v>
+        <v>1247.56</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.812000</v>
+        <v>-137.81200000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>20471.743722</v>
+        <v>20471.743721999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.686595</v>
+        <v>5.6865949999999996</v>
       </c>
       <c r="BF5" s="1">
-        <v>1287.600000</v>
+        <v>1287.5999999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.655000</v>
+        <v>-219.655</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>20482.815915</v>
+        <v>20482.815914999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.689671</v>
+        <v>5.6896709999999997</v>
       </c>
       <c r="BK5" s="1">
-        <v>1356.890000</v>
+        <v>1356.89</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.651000</v>
+        <v>-355.65100000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>20493.274558</v>
+        <v>20493.274558000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.692576</v>
+        <v>5.6925759999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1470.460000</v>
+        <v>1470.46</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-577.344000</v>
+        <v>-577.34400000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>20504.101231</v>
+        <v>20504.101231000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.695584</v>
+        <v>5.6955840000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1601.480000</v>
+        <v>1601.48</v>
       </c>
       <c r="BV5" s="1">
-        <v>-827.642000</v>
+        <v>-827.64200000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>20515.627796</v>
+        <v>20515.627796000001</v>
       </c>
       <c r="BY5" s="1">
         <v>5.698785</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1752.900000</v>
+        <v>1752.9</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1101.210000</v>
+        <v>-1101.21</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>20527.149856</v>
       </c>
       <c r="CD5" s="1">
-        <v>5.701986</v>
+        <v>5.7019859999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>2169.380000</v>
+        <v>2169.38</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1763.300000</v>
+        <v>-1763.3</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>20356.021655</v>
       </c>
       <c r="B6" s="1">
-        <v>5.654450</v>
+        <v>5.6544499999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>1139.790000</v>
+        <v>1139.79</v>
       </c>
       <c r="D6" s="1">
-        <v>-257.009000</v>
+        <v>-257.00900000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>20366.785664</v>
+        <v>20366.785663999999</v>
       </c>
       <c r="G6" s="1">
-        <v>5.657440</v>
+        <v>5.6574400000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1162.120000</v>
+        <v>1162.1199999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-215.265000</v>
+        <v>-215.26499999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>20377.227078</v>
       </c>
       <c r="L6" s="1">
-        <v>5.660341</v>
+        <v>5.6603409999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>1188.350000</v>
+        <v>1188.3499999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.301000</v>
+        <v>-149.30099999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>20387.458553</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.663183</v>
+        <v>5.6631830000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1195.770000</v>
+        <v>1195.77</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.295000</v>
+        <v>-127.295</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>20397.643404</v>
+        <v>20397.643403999999</v>
       </c>
       <c r="V6" s="1">
-        <v>5.666012</v>
+        <v>5.6660120000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>1202.730000</v>
+        <v>1202.73</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.530000</v>
+        <v>-106.53</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>20407.796016</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.668832</v>
+        <v>5.6688320000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1209.960000</v>
+        <v>1209.96</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.741400</v>
+        <v>-89.741399999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>20418.024016</v>
+        <v>20418.024015999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.671673</v>
+        <v>5.6716730000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1214.290000</v>
+        <v>1214.29</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.465500</v>
+        <v>-85.465500000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>20428.174186</v>
@@ -1614,315 +2030,315 @@
         <v>5.674493</v>
       </c>
       <c r="AL6" s="1">
-        <v>1221.370000</v>
+        <v>1221.3699999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.932500</v>
+        <v>-88.932500000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>20438.446006</v>
+        <v>20438.446005999998</v>
       </c>
       <c r="AP6" s="1">
         <v>5.677346</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1229.220000</v>
+        <v>1229.22</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.941000</v>
+        <v>-100.941</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>20449.804679</v>
+        <v>20449.804679000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.680501</v>
+        <v>5.6805009999999996</v>
       </c>
       <c r="AV6" s="1">
-        <v>1239.160000</v>
+        <v>1239.1600000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.341000</v>
+        <v>-120.34099999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>20460.780152</v>
+        <v>20460.780151999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.683550</v>
+        <v>5.6835500000000003</v>
       </c>
       <c r="BA6" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.807000</v>
+        <v>-137.80699999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>20472.118697</v>
+        <v>20472.118697000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.686700</v>
+        <v>5.6867000000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1287.580000</v>
+        <v>1287.58</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.642000</v>
+        <v>-219.642</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>20483.189899</v>
+        <v>20483.189899000001</v>
       </c>
       <c r="BJ6" s="1">
         <v>5.689775</v>
       </c>
       <c r="BK6" s="1">
-        <v>1356.890000</v>
+        <v>1356.89</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.676000</v>
+        <v>-355.67599999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>20493.697149</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.692694</v>
+        <v>5.6926940000000004</v>
       </c>
       <c r="BP6" s="1">
-        <v>1470.470000</v>
+        <v>1470.47</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-577.351000</v>
+        <v>-577.351</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>20504.812990</v>
+        <v>20504.812989999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>5.695781</v>
+        <v>5.6957810000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1601.730000</v>
+        <v>1601.73</v>
       </c>
       <c r="BV6" s="1">
-        <v>-827.761000</v>
+        <v>-827.76099999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>20515.748785</v>
       </c>
       <c r="BY6" s="1">
-        <v>5.698819</v>
+        <v>5.6988190000000003</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1752.830000</v>
+        <v>1752.83</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1101.130000</v>
+        <v>-1101.1300000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>20527.383936</v>
+        <v>20527.383935999998</v>
       </c>
       <c r="CD6" s="1">
         <v>5.702051</v>
       </c>
       <c r="CE6" s="1">
-        <v>2169.920000</v>
+        <v>2169.92</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1763.170000</v>
+        <v>-1763.17</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>20356.362866</v>
+        <v>20356.362865999999</v>
       </c>
       <c r="B7" s="1">
-        <v>5.654545</v>
+        <v>5.6545449999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>1139.820000</v>
+        <v>1139.82</v>
       </c>
       <c r="D7" s="1">
-        <v>-257.029000</v>
+        <v>-257.029</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>20367.215333</v>
       </c>
       <c r="G7" s="1">
-        <v>5.657560</v>
+        <v>5.6575600000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1161.880000</v>
+        <v>1161.8800000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-216.355000</v>
+        <v>-216.35499999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>20377.640743</v>
       </c>
       <c r="L7" s="1">
-        <v>5.660456</v>
+        <v>5.6604559999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1188.190000</v>
+        <v>1188.19</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.227000</v>
+        <v>-149.227</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>20387.748217</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.663263</v>
+        <v>5.6632629999999997</v>
       </c>
       <c r="R7" s="1">
-        <v>1195.810000</v>
+        <v>1195.81</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.242000</v>
+        <v>-127.242</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>20397.989147</v>
       </c>
       <c r="V7" s="1">
-        <v>5.666108</v>
+        <v>5.6661080000000004</v>
       </c>
       <c r="W7" s="1">
-        <v>1202.730000</v>
+        <v>1202.73</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.597000</v>
+        <v>-106.59699999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>20408.142718</v>
+        <v>20408.142717999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.668929</v>
+        <v>5.6689290000000003</v>
       </c>
       <c r="AB7" s="1">
-        <v>1209.880000</v>
+        <v>1209.8800000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.676900</v>
+        <v>-89.676900000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>20418.367280</v>
+        <v>20418.367279999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>5.671769</v>
+        <v>5.6717690000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>1214.480000</v>
+        <v>1214.48</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.441300</v>
+        <v>-85.441299999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>20428.519363</v>
+        <v>20428.519362999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.674589</v>
+        <v>5.6745890000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1221.360000</v>
+        <v>1221.3599999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.911000</v>
+        <v>-88.911000000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>20439.162688</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.677545</v>
+        <v>5.6775450000000003</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1229.250000</v>
+        <v>1229.25</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.938000</v>
+        <v>-100.938</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>20450.196054</v>
       </c>
       <c r="AU7" s="1">
-        <v>5.680610</v>
+        <v>5.6806099999999997</v>
       </c>
       <c r="AV7" s="1">
-        <v>1239.170000</v>
+        <v>1239.17</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.372000</v>
+        <v>-120.372</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>20461.139287</v>
+        <v>20461.139287000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.683650</v>
+        <v>5.6836500000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1247.600000</v>
+        <v>1247.5999999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.826000</v>
+        <v>-137.82599999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>20472.483257</v>
@@ -1931,467 +2347,467 @@
         <v>5.686801</v>
       </c>
       <c r="BF7" s="1">
-        <v>1287.610000</v>
+        <v>1287.6099999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.673000</v>
+        <v>-219.673</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>20483.868427</v>
+        <v>20483.868427000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.689963</v>
+        <v>5.6899629999999997</v>
       </c>
       <c r="BK7" s="1">
-        <v>1356.920000</v>
+        <v>1356.92</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.671000</v>
+        <v>-355.67099999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>20494.393531</v>
+        <v>20494.393531000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.692887</v>
+        <v>5.6928869999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1470.480000</v>
+        <v>1470.48</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-577.362000</v>
+        <v>-577.36199999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>20504.945918</v>
+        <v>20504.945918000001</v>
       </c>
       <c r="BT7" s="1">
         <v>5.695818</v>
       </c>
       <c r="BU7" s="1">
-        <v>1601.960000</v>
+        <v>1601.96</v>
       </c>
       <c r="BV7" s="1">
-        <v>-827.885000</v>
+        <v>-827.88499999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>20516.186751</v>
+        <v>20516.186751000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.698941</v>
+        <v>5.6989409999999996</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1752.750000</v>
+        <v>1752.75</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1101.030000</v>
+        <v>-1101.03</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>20527.903751</v>
+        <v>20527.903751000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>5.702195</v>
+        <v>5.7021949999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>2169.280000</v>
+        <v>2169.2800000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1764.990000</v>
+        <v>-1764.99</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>20356.785959</v>
+        <v>20356.785959000001</v>
       </c>
       <c r="B8" s="1">
-        <v>5.654663</v>
+        <v>5.6546630000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1140.010000</v>
+        <v>1140.01</v>
       </c>
       <c r="D8" s="1">
-        <v>-257.067000</v>
+        <v>-257.06700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>20367.493124</v>
+        <v>20367.493124000001</v>
       </c>
       <c r="G8" s="1">
-        <v>5.657637</v>
+        <v>5.6576370000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>1161.130000</v>
+        <v>1161.1300000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-215.729000</v>
+        <v>-215.72900000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>20377.944789</v>
+        <v>20377.944789000001</v>
       </c>
       <c r="L8" s="1">
-        <v>5.660540</v>
+        <v>5.6605400000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1188.360000</v>
+        <v>1188.3599999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.094000</v>
+        <v>-149.09399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>20388.098392</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.663361</v>
+        <v>5.6633610000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1195.810000</v>
+        <v>1195.81</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.270000</v>
+        <v>-127.27</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>20398.331882</v>
+        <v>20398.331881999999</v>
       </c>
       <c r="V8" s="1">
-        <v>5.666203</v>
+        <v>5.6662030000000003</v>
       </c>
       <c r="W8" s="1">
-        <v>1202.740000</v>
+        <v>1202.74</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.632000</v>
+        <v>-106.63200000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>20408.490415</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.669025</v>
+        <v>5.6690250000000004</v>
       </c>
       <c r="AB8" s="1">
-        <v>1209.910000</v>
+        <v>1209.9100000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.662700</v>
+        <v>-89.662700000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>20419.058175</v>
+        <v>20419.058174999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.671961</v>
+        <v>5.6719609999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>1214.620000</v>
+        <v>1214.6199999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.374000</v>
+        <v>-85.373999999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>20429.216771</v>
+        <v>20429.216770999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.674782</v>
+        <v>5.6747820000000004</v>
       </c>
       <c r="AL8" s="1">
-        <v>1221.360000</v>
+        <v>1221.3599999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.933800</v>
+        <v>-88.933800000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>20439.523605</v>
+        <v>20439.523604999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.677645</v>
+        <v>5.6776450000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1229.260000</v>
+        <v>1229.26</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.974000</v>
+        <v>-100.974</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>20450.561574</v>
+        <v>20450.561573999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.680712</v>
+        <v>5.6807119999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>1239.170000</v>
+        <v>1239.17</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.312000</v>
+        <v>-120.312</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>20461.499847</v>
+        <v>20461.499846999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.683750</v>
+        <v>5.6837499999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1247.580000</v>
+        <v>1247.58</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.807000</v>
+        <v>-137.80699999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>20473.158312</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.686988</v>
+        <v>5.6869880000000004</v>
       </c>
       <c r="BF8" s="1">
-        <v>1287.620000</v>
+        <v>1287.6199999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.648000</v>
+        <v>-219.648</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>20483.976090</v>
+        <v>20483.97609</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.689993</v>
+        <v>5.6899930000000003</v>
       </c>
       <c r="BK8" s="1">
-        <v>1356.920000</v>
+        <v>1356.92</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.680000</v>
+        <v>-355.68</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>20494.514091</v>
+        <v>20494.514091000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.692921</v>
+        <v>5.6929210000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1470.480000</v>
+        <v>1470.48</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-577.398000</v>
+        <v>-577.39800000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>20505.382397</v>
+        <v>20505.382397000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.695940</v>
+        <v>5.6959400000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1602.040000</v>
+        <v>1602.04</v>
       </c>
       <c r="BV8" s="1">
-        <v>-828.044000</v>
+        <v>-828.04399999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>20516.643568</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.699068</v>
+        <v>5.6990679999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1752.820000</v>
+        <v>1752.82</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1101.200000</v>
+        <v>-1101.2</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>20528.423087</v>
+        <v>20528.423086999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.702340</v>
+        <v>5.7023400000000004</v>
       </c>
       <c r="CE8" s="1">
-        <v>2168.670000</v>
+        <v>2168.67</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1763.700000</v>
+        <v>-1763.7</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>20357.064210</v>
+        <v>20357.06421</v>
       </c>
       <c r="B9" s="1">
-        <v>5.654740</v>
+        <v>5.6547400000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>1139.830000</v>
+        <v>1139.83</v>
       </c>
       <c r="D9" s="1">
-        <v>-256.949000</v>
+        <v>-256.94900000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>20367.836323</v>
       </c>
       <c r="G9" s="1">
-        <v>5.657732</v>
+        <v>5.6577320000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>1161.480000</v>
+        <v>1161.48</v>
       </c>
       <c r="I9" s="1">
-        <v>-214.811000</v>
+        <v>-214.81100000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>20378.274133</v>
+        <v>20378.274132999999</v>
       </c>
       <c r="L9" s="1">
-        <v>5.660632</v>
+        <v>5.6606319999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>1188.210000</v>
+        <v>1188.21</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.311000</v>
+        <v>-149.31100000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>20388.444104</v>
+        <v>20388.444103999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.663457</v>
+        <v>5.6634570000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>1195.850000</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.343000</v>
+        <v>-127.343</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>20399.018820</v>
+        <v>20399.018820000001</v>
       </c>
       <c r="V9" s="1">
-        <v>5.666394</v>
+        <v>5.6663940000000004</v>
       </c>
       <c r="W9" s="1">
-        <v>1202.870000</v>
+        <v>1202.8699999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.573000</v>
+        <v>-106.57299999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>20409.189804</v>
+        <v>20409.189804000001</v>
       </c>
       <c r="AA9" s="1">
         <v>5.669219</v>
       </c>
       <c r="AB9" s="1">
-        <v>1210.100000</v>
+        <v>1210.0999999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.636500</v>
+        <v>-89.636499999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>20419.401407</v>
+        <v>20419.401407000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.672056</v>
+        <v>5.6720560000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>1214.460000</v>
+        <v>1214.46</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.419900</v>
+        <v>-85.419899999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>20429.566417</v>
+        <v>20429.566417000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.674880</v>
+        <v>5.6748799999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1221.350000</v>
+        <v>1221.3499999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.914200</v>
+        <v>-88.914199999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>20439.884724</v>
@@ -2400,437 +2816,437 @@
         <v>5.677746</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1229.210000</v>
+        <v>1229.21</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.954000</v>
+        <v>-100.95399999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>20451.228076</v>
+        <v>20451.228075999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>5.680897</v>
+        <v>5.6808969999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1239.210000</v>
+        <v>1239.21</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.336000</v>
+        <v>-120.336</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>20462.174902</v>
+        <v>20462.174901999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.683937</v>
+        <v>5.6839370000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1247.580000</v>
+        <v>1247.58</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.831000</v>
+        <v>-137.83099999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>20473.597769</v>
       </c>
       <c r="BE9" s="1">
-        <v>5.687110</v>
+        <v>5.6871099999999997</v>
       </c>
       <c r="BF9" s="1">
-        <v>1287.600000</v>
+        <v>1287.5999999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.629000</v>
+        <v>-219.62899999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>20484.351529</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.690098</v>
+        <v>5.6900979999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1356.920000</v>
+        <v>1356.92</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.650000</v>
+        <v>-355.65</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>20494.938172</v>
+        <v>20494.938171999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.693038</v>
+        <v>5.6930379999999996</v>
       </c>
       <c r="BP9" s="1">
-        <v>1470.500000</v>
+        <v>1470.5</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-577.373000</v>
+        <v>-577.37300000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>20505.811933</v>
+        <v>20505.811933000001</v>
       </c>
       <c r="BT9" s="1">
         <v>5.696059</v>
       </c>
       <c r="BU9" s="1">
-        <v>1601.930000</v>
+        <v>1601.93</v>
       </c>
       <c r="BV9" s="1">
-        <v>-828.213000</v>
+        <v>-828.21299999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>20517.093966</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.699193</v>
+        <v>5.6991930000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1752.900000</v>
+        <v>1752.9</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1101.300000</v>
+        <v>-1101.3</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>20528.975103</v>
+        <v>20528.975103000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.702493</v>
+        <v>5.7024929999999996</v>
       </c>
       <c r="CE9" s="1">
-        <v>2170.330000</v>
+        <v>2170.33</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1763.140000</v>
+        <v>-1763.14</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>20357.407937</v>
       </c>
       <c r="B10" s="1">
-        <v>5.654836</v>
+        <v>5.6548360000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>1139.860000</v>
+        <v>1139.8599999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-257.033000</v>
+        <v>-257.03300000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>20368.184019</v>
       </c>
       <c r="G10" s="1">
-        <v>5.657829</v>
+        <v>5.6578290000000004</v>
       </c>
       <c r="H10" s="1">
-        <v>1160.880000</v>
+        <v>1160.8800000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-214.782000</v>
+        <v>-214.78200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>20378.819765</v>
       </c>
       <c r="L10" s="1">
-        <v>5.660783</v>
+        <v>5.6607830000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>1188.330000</v>
+        <v>1188.33</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.424000</v>
+        <v>-149.42400000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>20389.141016</v>
+        <v>20389.141016000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.663650</v>
+        <v>5.6636499999999996</v>
       </c>
       <c r="R10" s="1">
-        <v>1195.800000</v>
+        <v>1195.8</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.359000</v>
+        <v>-127.35899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>20399.363033</v>
+        <v>20399.363033000001</v>
       </c>
       <c r="V10" s="1">
-        <v>5.666490</v>
+        <v>5.6664899999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>1202.840000</v>
+        <v>1202.8399999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.568000</v>
+        <v>-106.568</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>20409.536973</v>
+        <v>20409.536972999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.669316</v>
+        <v>5.6693160000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1209.950000</v>
+        <v>1209.95</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.702500</v>
+        <v>-89.702500000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>20419.748116</v>
+        <v>20419.748115999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.672152</v>
+        <v>5.6721519999999996</v>
       </c>
       <c r="AG10" s="1">
-        <v>1214.430000</v>
+        <v>1214.43</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.404800</v>
+        <v>-85.404799999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>20430.228578</v>
+        <v>20430.228577999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.675063</v>
+        <v>5.6750629999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>1221.370000</v>
+        <v>1221.3699999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.923700</v>
+        <v>-88.923699999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>20440.545902</v>
+        <v>20440.545902000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.677929</v>
+        <v>5.6779289999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1229.230000</v>
+        <v>1229.23</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.970000</v>
+        <v>-100.97</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>20451.689507</v>
+        <v>20451.689506999999</v>
       </c>
       <c r="AU10" s="1">
         <v>5.681025</v>
       </c>
       <c r="AV10" s="1">
-        <v>1239.190000</v>
+        <v>1239.19</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.346000</v>
+        <v>-120.346</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>20462.571206</v>
+        <v>20462.571206000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.684048</v>
+        <v>5.6840479999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1247.550000</v>
+        <v>1247.55</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.841000</v>
+        <v>-137.84100000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>20473.960375</v>
+        <v>20473.960374999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.687211</v>
+        <v>5.6872109999999996</v>
       </c>
       <c r="BF10" s="1">
-        <v>1287.600000</v>
+        <v>1287.5999999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.642000</v>
+        <v>-219.642</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>20484.727000</v>
+        <v>20484.726999999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.690202</v>
+        <v>5.6902020000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1356.910000</v>
+        <v>1356.91</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.660000</v>
+        <v>-355.66</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>20495.336428</v>
+        <v>20495.336427999999</v>
       </c>
       <c r="BO10" s="1">
         <v>5.693149</v>
       </c>
       <c r="BP10" s="1">
-        <v>1470.450000</v>
+        <v>1470.45</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.366000</v>
+        <v>-577.36599999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>20506.238030</v>
+        <v>20506.23803</v>
       </c>
       <c r="BT10" s="1">
-        <v>5.696177</v>
+        <v>5.6961769999999996</v>
       </c>
       <c r="BU10" s="1">
-        <v>1601.930000</v>
+        <v>1601.93</v>
       </c>
       <c r="BV10" s="1">
-        <v>-828.442000</v>
+        <v>-828.44200000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>20517.516557</v>
+        <v>20517.516556999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>5.699310</v>
+        <v>5.6993099999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1752.910000</v>
+        <v>1752.91</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1101.240000</v>
+        <v>-1101.24</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>20529.506318</v>
       </c>
       <c r="CD10" s="1">
-        <v>5.702641</v>
+        <v>5.7026409999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>2169.210000</v>
+        <v>2169.21</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1764.360000</v>
+        <v>-1764.36</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>20357.747202</v>
+        <v>20357.747201999999</v>
       </c>
       <c r="B11" s="1">
-        <v>5.654930</v>
+        <v>5.6549300000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1139.950000</v>
+        <v>1139.95</v>
       </c>
       <c r="D11" s="1">
-        <v>-257.014000</v>
+        <v>-257.01400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>20368.872994</v>
+        <v>20368.872994000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5.658020</v>
+        <v>5.6580199999999996</v>
       </c>
       <c r="H11" s="1">
-        <v>1161.490000</v>
+        <v>1161.49</v>
       </c>
       <c r="I11" s="1">
-        <v>-215.479000</v>
+        <v>-215.47900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>20378.968052</v>
       </c>
       <c r="L11" s="1">
-        <v>5.660824</v>
+        <v>5.6608239999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1188.510000</v>
+        <v>1188.51</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.408000</v>
+        <v>-149.40799999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>20389.492188</v>
@@ -2839,211 +3255,211 @@
         <v>5.663748</v>
       </c>
       <c r="R11" s="1">
-        <v>1195.730000</v>
+        <v>1195.73</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.352000</v>
+        <v>-127.352</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>20399.707257</v>
+        <v>20399.707256999998</v>
       </c>
       <c r="V11" s="1">
-        <v>5.666585</v>
+        <v>5.6665850000000004</v>
       </c>
       <c r="W11" s="1">
-        <v>1202.770000</v>
+        <v>1202.77</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.511000</v>
+        <v>-106.511</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>20409.887675</v>
+        <v>20409.887675000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.669413</v>
+        <v>5.6694129999999996</v>
       </c>
       <c r="AB11" s="1">
-        <v>1210.010000</v>
+        <v>1210.01</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.872400</v>
+        <v>-89.872399999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>20420.386959</v>
+        <v>20420.386958999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.672330</v>
+        <v>5.6723299999999997</v>
       </c>
       <c r="AG11" s="1">
-        <v>1214.310000</v>
+        <v>1214.31</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.449100</v>
+        <v>-85.449100000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>20430.611489</v>
+        <v>20430.611488999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.675170</v>
+        <v>5.6751699999999996</v>
       </c>
       <c r="AL11" s="1">
-        <v>1221.370000</v>
+        <v>1221.3699999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.923300</v>
+        <v>-88.923299999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>20440.999202</v>
+        <v>20440.999201999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.678055</v>
+        <v>5.6780549999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1229.230000</v>
+        <v>1229.23</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.934000</v>
+        <v>-100.934</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>20452.051556</v>
+        <v>20452.051555999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.681125</v>
+        <v>5.6811249999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1239.160000</v>
+        <v>1239.1600000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.340000</v>
+        <v>-120.34</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>20462.960565</v>
+        <v>20462.960565000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.684156</v>
+        <v>5.6841559999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.818000</v>
+        <v>-137.81800000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>20474.318982</v>
+        <v>20474.318982000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.687311</v>
+        <v>5.6873110000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1287.620000</v>
+        <v>1287.6199999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.647000</v>
+        <v>-219.64699999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>20485.142648</v>
+        <v>20485.142648000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.690317</v>
+        <v>5.6903170000000003</v>
       </c>
       <c r="BK11" s="1">
-        <v>1356.930000</v>
+        <v>1356.93</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.694000</v>
+        <v>-355.69400000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>20495.767946</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.693269</v>
+        <v>5.6932689999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1470.510000</v>
+        <v>1470.51</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-577.348000</v>
+        <v>-577.34799999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>20506.650204</v>
+        <v>20506.650204000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.696292</v>
+        <v>5.6962919999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>1601.870000</v>
+        <v>1601.87</v>
       </c>
       <c r="BV11" s="1">
-        <v>-828.508000</v>
+        <v>-828.50800000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>20517.937132</v>
+        <v>20517.937131999999</v>
       </c>
       <c r="BY11" s="1">
         <v>5.699427</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1752.940000</v>
+        <v>1752.94</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1101.010000</v>
+        <v>-1101.01</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>20530.023644</v>
+        <v>20530.023644000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.702784</v>
+        <v>5.7027840000000003</v>
       </c>
       <c r="CE11" s="1">
-        <v>2170.470000</v>
+        <v>2170.4699999999998</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1765.480000</v>
+        <v>-1765.48</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>20358.427248</v>
       </c>
@@ -3051,1448 +3467,1448 @@
         <v>5.655119</v>
       </c>
       <c r="C12" s="1">
-        <v>1140.060000</v>
+        <v>1140.06</v>
       </c>
       <c r="D12" s="1">
-        <v>-256.965000</v>
+        <v>-256.96499999999997</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>20369.216689</v>
+        <v>20369.216689000001</v>
       </c>
       <c r="G12" s="1">
-        <v>5.658116</v>
+        <v>5.6581159999999997</v>
       </c>
       <c r="H12" s="1">
-        <v>1161.180000</v>
+        <v>1161.18</v>
       </c>
       <c r="I12" s="1">
-        <v>-215.655000</v>
+        <v>-215.655</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>20379.313779</v>
       </c>
       <c r="L12" s="1">
-        <v>5.660920</v>
+        <v>5.66092</v>
       </c>
       <c r="M12" s="1">
-        <v>1188.330000</v>
+        <v>1188.33</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.054000</v>
+        <v>-149.054</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>20389.840342</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.663845</v>
+        <v>5.6638450000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>1195.760000</v>
+        <v>1195.76</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.249000</v>
+        <v>-127.249</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>20400.359533</v>
+        <v>20400.359532999999</v>
       </c>
       <c r="V12" s="1">
-        <v>5.666767</v>
+        <v>5.6667670000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1202.720000</v>
+        <v>1202.72</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.551000</v>
+        <v>-106.551</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>20410.539387</v>
+        <v>20410.539387000001</v>
       </c>
       <c r="AA12" s="1">
         <v>5.669594</v>
       </c>
       <c r="AB12" s="1">
-        <v>1210.000000</v>
+        <v>1210</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.736700</v>
+        <v>-89.736699999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>20420.792189</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.672442</v>
+        <v>5.6724420000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1214.350000</v>
+        <v>1214.3499999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.420800</v>
+        <v>-85.4208</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>20430.962161</v>
+        <v>20430.962160999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.675267</v>
+        <v>5.6752669999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>1221.330000</v>
+        <v>1221.33</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.899500</v>
+        <v>-88.899500000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>20441.360290</v>
+        <v>20441.360290000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.678156</v>
+        <v>5.6781560000000004</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1229.220000</v>
+        <v>1229.22</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.970000</v>
+        <v>-100.97</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>20452.418099</v>
+        <v>20452.418098999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.681227</v>
+        <v>5.6812269999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1239.170000</v>
+        <v>1239.17</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.308000</v>
+        <v>-120.30800000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>20463.624212</v>
+        <v>20463.624211999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.684340</v>
+        <v>5.6843399999999997</v>
       </c>
       <c r="BA12" s="1">
-        <v>1247.580000</v>
+        <v>1247.58</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.877000</v>
+        <v>-137.87700000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>20474.732156</v>
+        <v>20474.732155999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.687426</v>
+        <v>5.6874260000000003</v>
       </c>
       <c r="BF12" s="1">
-        <v>1287.590000</v>
+        <v>1287.5899999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.614000</v>
+        <v>-219.614</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>20485.475992</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.690410</v>
+        <v>5.69041</v>
       </c>
       <c r="BK12" s="1">
-        <v>1356.910000</v>
+        <v>1356.91</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.678000</v>
+        <v>-355.678</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>20496.155818</v>
+        <v>20496.155817999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.693377</v>
+        <v>5.6933769999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1470.460000</v>
+        <v>1470.46</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-577.372000</v>
+        <v>-577.37199999999996</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>20507.079734</v>
+        <v>20507.079733999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.696411</v>
+        <v>5.6964110000000003</v>
       </c>
       <c r="BU12" s="1">
-        <v>1601.650000</v>
+        <v>1601.65</v>
       </c>
       <c r="BV12" s="1">
-        <v>-828.576000</v>
+        <v>-828.57600000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>20518.363196</v>
+        <v>20518.363195999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.699545</v>
+        <v>5.6995449999999996</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1752.610000</v>
+        <v>1752.61</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1101.210000</v>
+        <v>-1101.21</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>20530.632764</v>
+        <v>20530.632764000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.702954</v>
+        <v>5.7029540000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2169.590000</v>
+        <v>2169.59</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1762.530000</v>
+        <v>-1762.53</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>20358.772431</v>
+        <v>20358.772431000001</v>
       </c>
       <c r="B13" s="1">
-        <v>5.655215</v>
+        <v>5.6552150000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1139.890000</v>
+        <v>1139.8900000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-256.889000</v>
+        <v>-256.88900000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>20369.559922</v>
       </c>
       <c r="G13" s="1">
-        <v>5.658211</v>
+        <v>5.6582109999999997</v>
       </c>
       <c r="H13" s="1">
-        <v>1161.330000</v>
+        <v>1161.33</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.601000</v>
+        <v>-215.601</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>20379.973959</v>
+        <v>20379.973958999999</v>
       </c>
       <c r="L13" s="1">
-        <v>5.661104</v>
+        <v>5.6611039999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1188.440000</v>
+        <v>1188.44</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.432000</v>
+        <v>-149.43199999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>20390.486135</v>
+        <v>20390.486134999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.664024</v>
+        <v>5.6640240000000004</v>
       </c>
       <c r="R13" s="1">
-        <v>1195.840000</v>
+        <v>1195.8399999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.251000</v>
+        <v>-127.251</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>20400.734509</v>
+        <v>20400.734509000002</v>
       </c>
       <c r="V13" s="1">
-        <v>5.666871</v>
+        <v>5.6668710000000004</v>
       </c>
       <c r="W13" s="1">
-        <v>1202.720000</v>
+        <v>1202.72</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.524000</v>
+        <v>-106.524</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>20410.934698</v>
+        <v>20410.934698000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.669704</v>
+        <v>5.6697040000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>1209.950000</v>
+        <v>1209.95</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.761500</v>
+        <v>-89.761499999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>20421.122556</v>
+        <v>20421.122555999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.672534</v>
+        <v>5.6725339999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>1214.490000</v>
+        <v>1214.49</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.439400</v>
+        <v>-85.439400000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>20431.308896</v>
+        <v>20431.308895999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.675364</v>
+        <v>5.6753640000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1221.370000</v>
+        <v>1221.3699999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.923500</v>
+        <v>-88.923500000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>20441.717906</v>
+        <v>20441.717906000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.678255</v>
+        <v>5.6782550000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1229.260000</v>
+        <v>1229.26</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.957000</v>
+        <v>-100.95699999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>20452.828291</v>
+        <v>20452.828291000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.681341</v>
+        <v>5.6813409999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>1239.170000</v>
+        <v>1239.17</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.354000</v>
+        <v>-120.354</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>20464.043828</v>
+        <v>20464.043828000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>5.684457</v>
+        <v>5.6844570000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1247.540000</v>
+        <v>1247.54</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.815000</v>
+        <v>-137.815</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>20475.043605</v>
+        <v>20475.043604999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>5.687512</v>
+        <v>5.6875119999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1287.580000</v>
+        <v>1287.58</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.633000</v>
+        <v>-219.63300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>20485.861351</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.690517</v>
+        <v>5.6905169999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1356.890000</v>
+        <v>1356.89</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.657000</v>
+        <v>-355.65699999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>20496.715834</v>
+        <v>20496.715833999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.693532</v>
+        <v>5.6935320000000003</v>
       </c>
       <c r="BP13" s="1">
-        <v>1470.500000</v>
+        <v>1470.5</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-577.339000</v>
+        <v>-577.33900000000006</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>20507.492391</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.696526</v>
+        <v>5.6965260000000004</v>
       </c>
       <c r="BU13" s="1">
-        <v>1601.470000</v>
+        <v>1601.47</v>
       </c>
       <c r="BV13" s="1">
-        <v>-828.556000</v>
+        <v>-828.55600000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>20518.778843</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.699661</v>
+        <v>5.6996609999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1752.880000</v>
+        <v>1752.88</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1101.330000</v>
+        <v>-1101.33</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>20531.576619</v>
+        <v>20531.576618999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.703216</v>
+        <v>5.7032160000000003</v>
       </c>
       <c r="CE13" s="1">
-        <v>2171.240000</v>
+        <v>2171.2399999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1763.640000</v>
+        <v>-1763.64</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>20359.118143</v>
       </c>
       <c r="B14" s="1">
-        <v>5.655311</v>
+        <v>5.6553110000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1140.160000</v>
+        <v>1140.1600000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-256.852000</v>
+        <v>-256.85199999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>20370.217617</v>
+        <v>20370.217616999998</v>
       </c>
       <c r="G14" s="1">
-        <v>5.658394</v>
+        <v>5.6583940000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>1161.060000</v>
+        <v>1161.06</v>
       </c>
       <c r="I14" s="1">
-        <v>-215.933000</v>
+        <v>-215.93299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>20380.351101</v>
       </c>
       <c r="L14" s="1">
-        <v>5.661209</v>
+        <v>5.6612090000000004</v>
       </c>
       <c r="M14" s="1">
-        <v>1188.200000</v>
+        <v>1188.2</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.148000</v>
+        <v>-149.148</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>20390.888390</v>
+        <v>20390.88839</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.664136</v>
+        <v>5.6641360000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1195.820000</v>
+        <v>1195.82</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.319000</v>
+        <v>-127.319</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>20401.080183</v>
+        <v>20401.080182999998</v>
       </c>
       <c r="V14" s="1">
-        <v>5.666967</v>
+        <v>5.6669669999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>1202.790000</v>
+        <v>1202.79</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.549000</v>
+        <v>-106.54900000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>20411.280409</v>
+        <v>20411.280408999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.669800</v>
+        <v>5.6698000000000004</v>
       </c>
       <c r="AB14" s="1">
-        <v>1209.970000</v>
+        <v>1209.97</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.806000</v>
+        <v>-89.805999999999997</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>20421.465758</v>
+        <v>20421.465757999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.672629</v>
+        <v>5.6726289999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>1214.240000</v>
+        <v>1214.24</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.491900</v>
+        <v>-85.491900000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>20431.731455</v>
+        <v>20431.731455000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.675481</v>
+        <v>5.6754810000000004</v>
       </c>
       <c r="AL14" s="1">
-        <v>1221.380000</v>
+        <v>1221.3800000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.926900</v>
+        <v>-88.926900000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>20442.144497</v>
+        <v>20442.144497000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.678373</v>
+        <v>5.6783729999999997</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1229.220000</v>
+        <v>1229.22</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.959000</v>
+        <v>-100.959</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>20453.148210</v>
+        <v>20453.148209999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>5.681430</v>
+        <v>5.6814299999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1239.160000</v>
+        <v>1239.1600000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.325000</v>
+        <v>-120.325</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>20464.417845</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.684561</v>
+        <v>5.6845610000000004</v>
       </c>
       <c r="BA14" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.829000</v>
+        <v>-137.82900000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>20475.406213</v>
+        <v>20475.406212999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>5.687613</v>
+        <v>5.6876129999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1287.590000</v>
+        <v>1287.5899999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.619000</v>
+        <v>-219.619</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>20486.250710</v>
+        <v>20486.25071</v>
       </c>
       <c r="BJ14" s="1">
-        <v>5.690625</v>
+        <v>5.6906249999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1356.870000</v>
+        <v>1356.87</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.663000</v>
+        <v>-355.66300000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>20497.278761</v>
+        <v>20497.278761000001</v>
       </c>
       <c r="BO14" s="1">
         <v>5.693689</v>
       </c>
       <c r="BP14" s="1">
-        <v>1470.490000</v>
+        <v>1470.49</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-577.379000</v>
+        <v>-577.37900000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>20507.924394</v>
+        <v>20507.924394000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.696646</v>
+        <v>5.6966460000000003</v>
       </c>
       <c r="BU14" s="1">
-        <v>1601.320000</v>
+        <v>1601.32</v>
       </c>
       <c r="BV14" s="1">
-        <v>-828.563000</v>
+        <v>-828.56299999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>20519.233675</v>
+        <v>20519.233674999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.699787</v>
+        <v>5.6997869999999997</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1752.980000</v>
+        <v>1752.98</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1101.280000</v>
+        <v>-1101.28</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>20532.106382</v>
+        <v>20532.106382000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.703363</v>
+        <v>5.7033630000000004</v>
       </c>
       <c r="CE14" s="1">
-        <v>2169.300000</v>
+        <v>2169.3000000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1763.180000</v>
+        <v>-1763.18</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>20359.784270</v>
+        <v>20359.78427</v>
       </c>
       <c r="B15" s="1">
-        <v>5.655496</v>
+        <v>5.6554960000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>1139.910000</v>
+        <v>1139.9100000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-256.909000</v>
+        <v>-256.90899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>20370.594575</v>
+        <v>20370.594574999999</v>
       </c>
       <c r="G15" s="1">
-        <v>5.658498</v>
+        <v>5.6584979999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>1161.270000</v>
+        <v>1161.27</v>
       </c>
       <c r="I15" s="1">
-        <v>-214.989000</v>
+        <v>-214.989</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>20380.695602</v>
       </c>
       <c r="L15" s="1">
-        <v>5.661304</v>
+        <v>5.6613040000000003</v>
       </c>
       <c r="M15" s="1">
-        <v>1188.880000</v>
+        <v>1188.8800000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.352000</v>
+        <v>-149.352</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>20391.234598</v>
+        <v>20391.234597999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.664232</v>
+        <v>5.6642320000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>1195.860000</v>
+        <v>1195.8599999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.359000</v>
+        <v>-127.35899999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>20401.429368</v>
+        <v>20401.429368000001</v>
       </c>
       <c r="V15" s="1">
-        <v>5.667064</v>
+        <v>5.6670639999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1202.850000</v>
+        <v>1202.8499999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.545000</v>
+        <v>-106.545</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>20411.631691</v>
+        <v>20411.631690999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.669898</v>
+        <v>5.6698979999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1209.950000</v>
+        <v>1209.95</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.816500</v>
+        <v>-89.816500000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>20421.888876</v>
+        <v>20421.888876000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.672747</v>
+        <v>5.6727470000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1214.450000</v>
+        <v>1214.45</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.343100</v>
+        <v>-85.343100000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>20432.004750</v>
+        <v>20432.00475</v>
       </c>
       <c r="AK15" s="1">
-        <v>5.675557</v>
+        <v>5.6755570000000004</v>
       </c>
       <c r="AL15" s="1">
-        <v>1221.360000</v>
+        <v>1221.3599999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.921300</v>
+        <v>-88.921300000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>20442.440576</v>
+        <v>20442.440576000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.678456</v>
+        <v>5.6784559999999997</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1229.220000</v>
+        <v>1229.22</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.940000</v>
+        <v>-100.94</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>20453.511779</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.681531</v>
+        <v>5.6815309999999997</v>
       </c>
       <c r="AV15" s="1">
-        <v>1239.180000</v>
+        <v>1239.18</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.345000</v>
+        <v>-120.345</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>20464.811139</v>
+        <v>20464.811139000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.684670</v>
+        <v>5.6846699999999997</v>
       </c>
       <c r="BA15" s="1">
-        <v>1247.550000</v>
+        <v>1247.55</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.825000</v>
+        <v>-137.82499999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>20475.766773</v>
+        <v>20475.766772999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.687713</v>
+        <v>5.6877129999999996</v>
       </c>
       <c r="BF15" s="1">
-        <v>1287.540000</v>
+        <v>1287.54</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.658000</v>
+        <v>-219.65799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>20487.000197</v>
+        <v>20487.000197000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.690833</v>
+        <v>5.6908329999999996</v>
       </c>
       <c r="BK15" s="1">
-        <v>1356.940000</v>
+        <v>1356.94</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.684000</v>
+        <v>-355.68400000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>20497.392344</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.693720</v>
+        <v>5.6937199999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1470.480000</v>
+        <v>1470.48</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-577.425000</v>
+        <v>-577.42499999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>20508.350489</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.696764</v>
+        <v>5.6967639999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1601.160000</v>
+        <v>1601.16</v>
       </c>
       <c r="BV15" s="1">
-        <v>-828.609000</v>
+        <v>-828.60900000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>20519.680605</v>
+        <v>20519.680605000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.699911</v>
+        <v>5.6999110000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1752.960000</v>
+        <v>1752.96</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1101.230000</v>
+        <v>-1101.23</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>20532.928217</v>
+        <v>20532.928217000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.703591</v>
+        <v>5.7035910000000003</v>
       </c>
       <c r="CE15" s="1">
-        <v>2171.650000</v>
+        <v>2171.65</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1764.390000</v>
+        <v>-1764.39</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>20360.142418</v>
+        <v>20360.142417999999</v>
       </c>
       <c r="B16" s="1">
-        <v>5.655595</v>
+        <v>5.6555949999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1139.950000</v>
+        <v>1139.95</v>
       </c>
       <c r="D16" s="1">
-        <v>-256.894000</v>
+        <v>-256.89400000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>20370.941279</v>
+        <v>20370.941278999999</v>
       </c>
       <c r="G16" s="1">
         <v>5.658595</v>
       </c>
       <c r="H16" s="1">
-        <v>1161.440000</v>
+        <v>1161.44</v>
       </c>
       <c r="I16" s="1">
-        <v>-215.506000</v>
+        <v>-215.506</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>20381.042306</v>
+        <v>20381.042305999999</v>
       </c>
       <c r="L16" s="1">
-        <v>5.661401</v>
+        <v>5.6614009999999997</v>
       </c>
       <c r="M16" s="1">
-        <v>1188.080000</v>
+        <v>1188.08</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.339000</v>
+        <v>-149.339</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>20391.582293</v>
+        <v>20391.582292999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.664328</v>
+        <v>5.6643280000000003</v>
       </c>
       <c r="R16" s="1">
-        <v>1195.800000</v>
+        <v>1195.8</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.334000</v>
+        <v>-127.334</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>20401.855463</v>
       </c>
       <c r="V16" s="1">
-        <v>5.667182</v>
+        <v>5.6671820000000004</v>
       </c>
       <c r="W16" s="1">
-        <v>1202.770000</v>
+        <v>1202.77</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.569000</v>
+        <v>-106.569</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>20412.101289</v>
+        <v>20412.101288999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.670028</v>
+        <v>5.6700280000000003</v>
       </c>
       <c r="AB16" s="1">
-        <v>1209.890000</v>
+        <v>1209.8900000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.792600</v>
+        <v>-89.792599999999993</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>20422.161147</v>
+        <v>20422.161146999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>5.672823</v>
+        <v>5.6728230000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>1214.420000</v>
+        <v>1214.42</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.467500</v>
+        <v>-85.467500000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>20432.351454</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.675653</v>
+        <v>5.6756529999999996</v>
       </c>
       <c r="AL16" s="1">
-        <v>1221.370000</v>
+        <v>1221.3699999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.927900</v>
+        <v>-88.927899999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>20442.800209</v>
+        <v>20442.800209000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.678556</v>
+        <v>5.6785560000000004</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1229.230000</v>
+        <v>1229.23</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.978000</v>
+        <v>-100.97799999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>20453.877991</v>
+        <v>20453.877991000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>5.681633</v>
+        <v>5.6816329999999997</v>
       </c>
       <c r="AV16" s="1">
-        <v>1239.150000</v>
+        <v>1239.1500000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.330000</v>
+        <v>-120.33</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>20465.527858</v>
+        <v>20465.527858000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>5.684869</v>
       </c>
       <c r="BA16" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.826000</v>
+        <v>-137.82599999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>20476.488452</v>
+        <v>20476.488452000001</v>
       </c>
       <c r="BE16" s="1">
         <v>5.687913</v>
       </c>
       <c r="BF16" s="1">
-        <v>1287.580000</v>
+        <v>1287.58</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.641000</v>
+        <v>-219.64099999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>20487.398982</v>
+        <v>20487.398981999999</v>
       </c>
       <c r="BJ16" s="1">
         <v>5.690944</v>
       </c>
       <c r="BK16" s="1">
-        <v>1356.910000</v>
+        <v>1356.91</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.680000</v>
+        <v>-355.68</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>20497.788178</v>
+        <v>20497.788177999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.693830</v>
+        <v>5.6938300000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1470.510000</v>
+        <v>1470.51</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-577.379000</v>
+        <v>-577.37900000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>20508.765113</v>
+        <v>20508.765113000001</v>
       </c>
       <c r="BT16" s="1">
         <v>5.696879</v>
       </c>
       <c r="BU16" s="1">
-        <v>1601.110000</v>
+        <v>1601.11</v>
       </c>
       <c r="BV16" s="1">
-        <v>-828.375000</v>
+        <v>-828.375</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>20520.442457</v>
+        <v>20520.442457000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.700123</v>
+        <v>5.7001229999999996</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1752.950000</v>
+        <v>1752.95</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1101.360000</v>
+        <v>-1101.3599999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>20533.165305</v>
+        <v>20533.165304999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>5.703657</v>
+        <v>5.7036569999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>2171.460000</v>
+        <v>2171.46</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1764.400000</v>
+        <v>-1764.4</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>20360.484621</v>
       </c>
       <c r="B17" s="1">
-        <v>5.655690</v>
+        <v>5.6556899999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1139.970000</v>
+        <v>1139.97</v>
       </c>
       <c r="D17" s="1">
-        <v>-257.295000</v>
+        <v>-257.29500000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>20371.285252</v>
+        <v>20371.285252000001</v>
       </c>
       <c r="G17" s="1">
-        <v>5.658690</v>
+        <v>5.65869</v>
       </c>
       <c r="H17" s="1">
-        <v>1161.480000</v>
+        <v>1161.48</v>
       </c>
       <c r="I17" s="1">
-        <v>-215.084000</v>
+        <v>-215.084</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>20381.471843</v>
+        <v>20381.471842999999</v>
       </c>
       <c r="L17" s="1">
-        <v>5.661520</v>
+        <v>5.6615200000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>1188.300000</v>
+        <v>1188.3</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.405000</v>
+        <v>-149.405</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>20392.012851</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.664448</v>
+        <v>5.6644480000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1195.810000</v>
+        <v>1195.81</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.305000</v>
+        <v>-127.30500000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>20402.133686</v>
+        <v>20402.133686000001</v>
       </c>
       <c r="V17" s="1">
-        <v>5.667259</v>
+        <v>5.6672589999999996</v>
       </c>
       <c r="W17" s="1">
-        <v>1202.810000</v>
+        <v>1202.81</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.605000</v>
+        <v>-106.605</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>20412.351305</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.670098</v>
+        <v>5.6700980000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>1209.990000</v>
+        <v>1209.99</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.783100</v>
+        <v>-89.783100000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>20422.505371</v>
+        <v>20422.505370999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.672918</v>
+        <v>5.6729180000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1214.550000</v>
+        <v>1214.55</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.288400</v>
+        <v>-85.288399999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>20432.701629</v>
+        <v>20432.701628999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.675750</v>
+        <v>5.6757499999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1221.360000</v>
+        <v>1221.3599999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.934500</v>
+        <v>-88.9345</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>20443.160271</v>
+        <v>20443.160271000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.678656</v>
+        <v>5.6786560000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1229.230000</v>
+        <v>1229.23</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.958000</v>
+        <v>-100.958</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>20454.606945</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.681835</v>
+        <v>5.6818350000000004</v>
       </c>
       <c r="AV17" s="1">
-        <v>1239.140000</v>
+        <v>1239.1400000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.348000</v>
+        <v>-120.348</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>20465.885010</v>
+        <v>20465.885010000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>5.684968</v>
+        <v>5.6849679999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>1247.550000</v>
+        <v>1247.55</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.867000</v>
+        <v>-137.86699999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>20476.875827</v>
@@ -4501,2403 +4917,2404 @@
         <v>5.688021</v>
       </c>
       <c r="BF17" s="1">
-        <v>1287.560000</v>
+        <v>1287.56</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.636000</v>
+        <v>-219.636</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>20487.774994</v>
+        <v>20487.774993999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.691049</v>
+        <v>5.6910489999999996</v>
       </c>
       <c r="BK17" s="1">
-        <v>1356.920000</v>
+        <v>1356.92</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.671000</v>
+        <v>-355.67099999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>20498.519752</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.694033</v>
+        <v>5.6940330000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1470.510000</v>
+        <v>1470.51</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-577.403000</v>
+        <v>-577.40300000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>20509.504189</v>
+        <v>20509.504188999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.697084</v>
+        <v>5.6970840000000003</v>
       </c>
       <c r="BU17" s="1">
-        <v>1601.030000</v>
+        <v>1601.03</v>
       </c>
       <c r="BV17" s="1">
-        <v>-828.151000</v>
+        <v>-828.15099999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>20520.585769</v>
+        <v>20520.585769000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.700163</v>
+        <v>5.7001629999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1752.970000</v>
+        <v>1752.97</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1101.260000</v>
+        <v>-1101.26</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>20533.681144</v>
+        <v>20533.681143999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.703800</v>
+        <v>5.7038000000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>2170.020000</v>
+        <v>2170.02</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1763.310000</v>
+        <v>-1763.31</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>20360.827852</v>
+        <v>20360.827851999999</v>
       </c>
       <c r="B18" s="1">
         <v>5.655786</v>
       </c>
       <c r="C18" s="1">
-        <v>1139.830000</v>
+        <v>1139.83</v>
       </c>
       <c r="D18" s="1">
-        <v>-256.810000</v>
+        <v>-256.81</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>20371.708094</v>
+        <v>20371.708094000001</v>
       </c>
       <c r="G18" s="1">
-        <v>5.658808</v>
+        <v>5.6588079999999996</v>
       </c>
       <c r="H18" s="1">
-        <v>1160.990000</v>
+        <v>1160.99</v>
       </c>
       <c r="I18" s="1">
-        <v>-215.877000</v>
+        <v>-215.87700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>20381.752576</v>
+        <v>20381.752575999999</v>
       </c>
       <c r="L18" s="1">
-        <v>5.661598</v>
+        <v>5.6615979999999997</v>
       </c>
       <c r="M18" s="1">
-        <v>1188.520000</v>
+        <v>1188.52</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.316000</v>
+        <v>-149.316</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>20392.289091</v>
+        <v>20392.289090999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.664525</v>
+        <v>5.6645250000000003</v>
       </c>
       <c r="R18" s="1">
-        <v>1195.770000</v>
+        <v>1195.77</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.263000</v>
+        <v>-127.26300000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>20402.476421</v>
+        <v>20402.476420999999</v>
       </c>
       <c r="V18" s="1">
-        <v>5.667355</v>
+        <v>5.6673549999999997</v>
       </c>
       <c r="W18" s="1">
-        <v>1202.790000</v>
+        <v>1202.79</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.557000</v>
+        <v>-106.557</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>20412.687560</v>
+        <v>20412.687559999998</v>
       </c>
       <c r="AA18" s="1">
         <v>5.670191</v>
       </c>
       <c r="AB18" s="1">
-        <v>1210.000000</v>
+        <v>1210</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.751500</v>
+        <v>-89.751499999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>20422.849099</v>
+        <v>20422.849098999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.673014</v>
+        <v>5.6730140000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>1214.450000</v>
+        <v>1214.45</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.432600</v>
+        <v>-85.432599999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>20433.398508</v>
+        <v>20433.398507999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.675944</v>
+        <v>5.6759440000000003</v>
       </c>
       <c r="AL18" s="1">
-        <v>1221.340000</v>
+        <v>1221.3399999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.941200</v>
+        <v>-88.941199999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>20443.887440</v>
+        <v>20443.887439999999</v>
       </c>
       <c r="AP18" s="1">
         <v>5.678858</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1229.210000</v>
+        <v>1229.21</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.967000</v>
+        <v>-100.967</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>20454.998288</v>
+        <v>20454.998287999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.681944</v>
+        <v>5.6819439999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>1239.150000</v>
+        <v>1239.1500000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.323000</v>
+        <v>-120.32299999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>20466.241136</v>
+        <v>20466.241136000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.685067</v>
+        <v>5.6850670000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1247.560000</v>
+        <v>1247.56</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.823000</v>
+        <v>-137.82300000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>20477.236915</v>
+        <v>20477.236915000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.688121</v>
+        <v>5.6881209999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1287.580000</v>
+        <v>1287.58</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.653000</v>
+        <v>-219.65299999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>20488.461907</v>
+        <v>20488.461907000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.691239</v>
+        <v>5.6912390000000004</v>
       </c>
       <c r="BK18" s="1">
-        <v>1356.900000</v>
+        <v>1356.9</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.697000</v>
+        <v>-355.697</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>20499.031127</v>
+        <v>20499.031126999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>5.694175</v>
+        <v>5.6941750000000004</v>
       </c>
       <c r="BP18" s="1">
-        <v>1470.480000</v>
+        <v>1470.48</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-577.357000</v>
+        <v>-577.35699999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>20509.623724</v>
+        <v>20509.623724000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.697118</v>
+        <v>5.6971179999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>1601.090000</v>
+        <v>1601.09</v>
       </c>
       <c r="BV18" s="1">
-        <v>-827.961000</v>
+        <v>-827.96100000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>20521.005882</v>
+        <v>20521.005882000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.700279</v>
+        <v>5.7002790000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1752.880000</v>
+        <v>1752.88</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1101.240000</v>
+        <v>-1101.24</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>20534.202471</v>
+        <v>20534.202471000001</v>
       </c>
       <c r="CD18" s="1">
         <v>5.703945</v>
       </c>
       <c r="CE18" s="1">
-        <v>2169.750000</v>
+        <v>2169.75</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1765.350000</v>
+        <v>-1765.35</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>20361.529691</v>
       </c>
       <c r="B19" s="1">
-        <v>5.655980</v>
+        <v>5.6559799999999996</v>
       </c>
       <c r="C19" s="1">
-        <v>1140.090000</v>
+        <v>1140.0899999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-257.056000</v>
+        <v>-257.05599999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>20371.985359</v>
+        <v>20371.985358999998</v>
       </c>
       <c r="G19" s="1">
-        <v>5.658885</v>
+        <v>5.6588849999999997</v>
       </c>
       <c r="H19" s="1">
-        <v>1161.200000</v>
+        <v>1161.2</v>
       </c>
       <c r="I19" s="1">
-        <v>-215.170000</v>
+        <v>-215.17</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>20382.099314</v>
+        <v>20382.099313999999</v>
       </c>
       <c r="L19" s="1">
-        <v>5.661694</v>
+        <v>5.6616939999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1188.540000</v>
+        <v>1188.54</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.432000</v>
+        <v>-149.43199999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>20392.640258</v>
+        <v>20392.640257999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.664622</v>
+        <v>5.6646219999999996</v>
       </c>
       <c r="R19" s="1">
-        <v>1195.850000</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.282000</v>
+        <v>-127.282</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>20402.823653</v>
+        <v>20402.823652999999</v>
       </c>
       <c r="V19" s="1">
-        <v>5.667451</v>
+        <v>5.6674509999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1202.650000</v>
+        <v>1202.6500000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.524000</v>
+        <v>-106.524</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>20413.381960</v>
+        <v>20413.381959999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.670384</v>
+        <v>5.6703840000000003</v>
       </c>
       <c r="AB19" s="1">
-        <v>1209.930000</v>
+        <v>1209.93</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.823600</v>
+        <v>-89.823599999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>20423.535562</v>
+        <v>20423.535562000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.673204</v>
+        <v>5.6732040000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1214.490000</v>
+        <v>1214.49</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.427000</v>
+        <v>-85.427000000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>20433.750204</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.676042</v>
+        <v>5.6760419999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1221.380000</v>
+        <v>1221.3800000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.935100</v>
+        <v>-88.935100000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>20444.265854</v>
+        <v>20444.265854000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.678963</v>
+        <v>5.6789630000000004</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1229.220000</v>
+        <v>1229.22</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.961000</v>
+        <v>-100.961</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>20455.361145</v>
+        <v>20455.361144999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.682045</v>
+        <v>5.6820449999999996</v>
       </c>
       <c r="AV19" s="1">
-        <v>1239.160000</v>
+        <v>1239.1600000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.313000</v>
+        <v>-120.313</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>20466.905280</v>
+        <v>20466.905279999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.685251</v>
+        <v>5.6852510000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1247.510000</v>
+        <v>1247.51</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.849000</v>
+        <v>-137.84899999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>20477.913955</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.688309</v>
+        <v>5.6883090000000003</v>
       </c>
       <c r="BF19" s="1">
-        <v>1287.570000</v>
+        <v>1287.57</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.650000</v>
+        <v>-219.65</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>20488.570041</v>
+        <v>20488.570040999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5.691269</v>
+        <v>5.6912690000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1356.920000</v>
+        <v>1356.92</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.668000</v>
+        <v>-355.66800000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>20499.445286</v>
+        <v>20499.445285999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>5.694290</v>
+        <v>5.6942899999999996</v>
       </c>
       <c r="BP19" s="1">
-        <v>1470.490000</v>
+        <v>1470.49</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-577.415000</v>
+        <v>-577.41499999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>20510.036360</v>
+        <v>20510.036359999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.697232</v>
+        <v>5.6972319999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>1601.190000</v>
+        <v>1601.19</v>
       </c>
       <c r="BV19" s="1">
-        <v>-827.849000</v>
+        <v>-827.84900000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>20521.429496</v>
+        <v>20521.429496000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.700397</v>
+        <v>5.7003969999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1752.800000</v>
+        <v>1752.8</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1101.200000</v>
+        <v>-1101.2</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>20534.740102</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.704094</v>
+        <v>5.7040940000000004</v>
       </c>
       <c r="CE19" s="1">
-        <v>2171.910000</v>
+        <v>2171.91</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1763.930000</v>
+        <v>-1763.93</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>20361.870474</v>
+        <v>20361.870473999999</v>
       </c>
       <c r="B20" s="1">
-        <v>5.656075</v>
+        <v>5.6560750000000004</v>
       </c>
       <c r="C20" s="1">
-        <v>1139.770000</v>
+        <v>1139.77</v>
       </c>
       <c r="D20" s="1">
-        <v>-257.070000</v>
+        <v>-257.07</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>20372.327109</v>
+        <v>20372.327109000002</v>
       </c>
       <c r="G20" s="1">
-        <v>5.658980</v>
+        <v>5.6589799999999997</v>
       </c>
       <c r="H20" s="1">
-        <v>1160.420000</v>
+        <v>1160.42</v>
       </c>
       <c r="I20" s="1">
-        <v>-215.240000</v>
+        <v>-215.24</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>20382.441519</v>
       </c>
       <c r="L20" s="1">
-        <v>5.661789</v>
+        <v>5.6617889999999997</v>
       </c>
       <c r="M20" s="1">
-        <v>1188.280000</v>
+        <v>1188.28</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.288000</v>
+        <v>-149.28800000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>20392.988947</v>
+        <v>20392.988947000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.664719</v>
+        <v>5.6647189999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>1195.840000</v>
+        <v>1195.8399999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.339000</v>
+        <v>-127.339</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>20403.508132</v>
+        <v>20403.508131999999</v>
       </c>
       <c r="V20" s="1">
-        <v>5.667641</v>
+        <v>5.6676409999999997</v>
       </c>
       <c r="W20" s="1">
-        <v>1202.760000</v>
+        <v>1202.76</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.656000</v>
+        <v>-106.65600000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>20413.731458</v>
+        <v>20413.731457999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.670481</v>
+        <v>5.6704809999999997</v>
       </c>
       <c r="AB20" s="1">
-        <v>1209.910000</v>
+        <v>1209.9100000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.662900</v>
+        <v>-89.662899999999993</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>20423.878793</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.673300</v>
+        <v>5.6733000000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>1214.410000</v>
+        <v>1214.4100000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.380100</v>
+        <v>-85.380099999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>20434.097372</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.676138</v>
+        <v>5.6761379999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1221.350000</v>
+        <v>1221.3499999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.910700</v>
+        <v>-88.910700000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>20444.628704</v>
+        <v>20444.628703999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.679064</v>
+        <v>5.6790640000000003</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1229.200000</v>
+        <v>1229.2</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.961000</v>
+        <v>-100.961</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>20456.024542</v>
+        <v>20456.024541999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.682229</v>
+        <v>5.6822290000000004</v>
       </c>
       <c r="AV20" s="1">
-        <v>1239.190000</v>
+        <v>1239.19</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.383000</v>
+        <v>-120.383</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>20467.352143</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.685376</v>
+        <v>5.6853759999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1247.550000</v>
+        <v>1247.55</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.844000</v>
+        <v>-137.84399999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>20478.346962</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.688430</v>
+        <v>5.6884300000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1287.570000</v>
+        <v>1287.57</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.605000</v>
+        <v>-219.60499999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>20488.927656</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.691369</v>
+        <v>5.6913689999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1356.880000</v>
+        <v>1356.88</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.684000</v>
+        <v>-355.68400000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>20499.846550</v>
+        <v>20499.846549999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.694402</v>
+        <v>5.6944020000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1470.500000</v>
+        <v>1470.5</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-577.364000</v>
+        <v>-577.36400000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>20510.470359</v>
+        <v>20510.470358999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.697353</v>
+        <v>5.6973529999999997</v>
       </c>
       <c r="BU20" s="1">
-        <v>1601.340000</v>
+        <v>1601.34</v>
       </c>
       <c r="BV20" s="1">
-        <v>-827.754000</v>
+        <v>-827.75400000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>20521.863961</v>
+        <v>20521.863960999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.700518</v>
+        <v>5.7005179999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1752.980000</v>
+        <v>1752.98</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1101.250000</v>
+        <v>-1101.25</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>20535.278795</v>
+        <v>20535.278794999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.704244</v>
+        <v>5.7042440000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2168.730000</v>
+        <v>2168.73</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1763.930000</v>
+        <v>-1763.93</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>20362.210700</v>
+        <v>20362.2107</v>
       </c>
       <c r="B21" s="1">
-        <v>5.656170</v>
+        <v>5.6561700000000004</v>
       </c>
       <c r="C21" s="1">
-        <v>1139.760000</v>
+        <v>1139.76</v>
       </c>
       <c r="D21" s="1">
-        <v>-256.983000</v>
+        <v>-256.983</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>20372.672317</v>
       </c>
       <c r="G21" s="1">
-        <v>5.659076</v>
+        <v>5.6590759999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>1161.610000</v>
+        <v>1161.6099999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-214.612000</v>
+        <v>-214.61199999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>20383.134432</v>
+        <v>20383.134431999999</v>
       </c>
       <c r="L21" s="1">
-        <v>5.661982</v>
+        <v>5.6619820000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1188.130000</v>
+        <v>1188.1300000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.394000</v>
+        <v>-149.39400000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>20393.685329</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.664913</v>
+        <v>5.6649130000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>1195.780000</v>
+        <v>1195.78</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.376000</v>
+        <v>-127.376</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>20403.851860</v>
+        <v>20403.851859999999</v>
       </c>
       <c r="V21" s="1">
-        <v>5.667737</v>
+        <v>5.6677369999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>1202.750000</v>
+        <v>1202.75</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.553000</v>
+        <v>-106.553</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>20414.081571</v>
+        <v>20414.081570999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>5.670578</v>
+        <v>5.6705779999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1209.910000</v>
+        <v>1209.9100000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.769000</v>
+        <v>-89.769000000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>20424.221032</v>
+        <v>20424.221032000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.673395</v>
+        <v>5.6733950000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.406200</v>
+        <v>-85.406199999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>20434.741179</v>
+        <v>20434.741179000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>5.676317</v>
+        <v>5.6763170000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1221.350000</v>
+        <v>1221.3499999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.931200</v>
+        <v>-88.931200000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>20445.294556</v>
+        <v>20445.294556000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.679248</v>
+        <v>5.6792480000000003</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1229.210000</v>
+        <v>1229.21</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.948000</v>
+        <v>-100.94799999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>20456.318676</v>
+        <v>20456.318675999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.682311</v>
+        <v>5.6823110000000003</v>
       </c>
       <c r="AV21" s="1">
-        <v>1239.150000</v>
+        <v>1239.1500000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.346000</v>
+        <v>-120.346</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>20467.708767</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.685475</v>
+        <v>5.6854750000000003</v>
       </c>
       <c r="BA21" s="1">
-        <v>1247.560000</v>
+        <v>1247.56</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.813000</v>
+        <v>-137.81299999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>20478.710032</v>
+        <v>20478.710031999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.688531</v>
+        <v>5.6885310000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1287.570000</v>
+        <v>1287.57</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.617000</v>
+        <v>-219.61699999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>20489.303586</v>
+        <v>20489.303586000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.691473</v>
+        <v>5.6914730000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1356.920000</v>
+        <v>1356.92</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.669000</v>
+        <v>-355.66899999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>20500.267653</v>
+        <v>20500.267652999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.694519</v>
+        <v>5.6945189999999997</v>
       </c>
       <c r="BP21" s="1">
-        <v>1470.470000</v>
+        <v>1470.47</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-577.369000</v>
+        <v>-577.36900000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>20510.897948</v>
+        <v>20510.897948000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.697472</v>
+        <v>5.6974720000000003</v>
       </c>
       <c r="BU21" s="1">
-        <v>1601.480000</v>
+        <v>1601.48</v>
       </c>
       <c r="BV21" s="1">
-        <v>-827.751000</v>
+        <v>-827.75099999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>20522.294982</v>
+        <v>20522.294981999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.700637</v>
+        <v>5.7006370000000004</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1752.810000</v>
+        <v>1752.81</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1101.290000</v>
+        <v>-1101.29</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>20535.820668</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.704395</v>
+        <v>5.7043949999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2170.910000</v>
+        <v>2170.91</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1765.460000</v>
+        <v>-1765.46</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>20362.898649</v>
+        <v>20362.898648999999</v>
       </c>
       <c r="B22" s="1">
-        <v>5.656361</v>
+        <v>5.6563610000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>1140.260000</v>
+        <v>1140.26</v>
       </c>
       <c r="D22" s="1">
-        <v>-257.118000</v>
+        <v>-257.11799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>20373.362252</v>
+        <v>20373.362251999999</v>
       </c>
       <c r="G22" s="1">
-        <v>5.659267</v>
+        <v>5.6592669999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>1161.450000</v>
+        <v>1161.45</v>
       </c>
       <c r="I22" s="1">
-        <v>-216.235000</v>
+        <v>-216.23500000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>20383.481136</v>
+        <v>20383.481135999999</v>
       </c>
       <c r="L22" s="1">
-        <v>5.662078</v>
+        <v>5.6620780000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1188.130000</v>
+        <v>1188.1300000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.492000</v>
+        <v>-149.49199999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>20394.036000</v>
+        <v>20394.036</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.665010</v>
+        <v>5.6650099999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>1195.730000</v>
+        <v>1195.73</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.305000</v>
+        <v>-127.30500000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>20404.196051</v>
+        <v>20404.196050999999</v>
       </c>
       <c r="V22" s="1">
-        <v>5.667832</v>
+        <v>5.6678319999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1202.780000</v>
+        <v>1202.78</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.540000</v>
+        <v>-106.54</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>20414.727140</v>
+        <v>20414.727139999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.670758</v>
+        <v>5.6707580000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1209.810000</v>
+        <v>1209.81</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.713500</v>
+        <v>-89.713499999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>20424.864840</v>
+        <v>20424.864839999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>5.673574</v>
+        <v>5.6735740000000003</v>
       </c>
       <c r="AG22" s="1">
-        <v>1214.290000</v>
+        <v>1214.29</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.352600</v>
+        <v>-85.352599999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>20435.146280</v>
+        <v>20435.146280000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.676430</v>
+        <v>5.6764299999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1221.360000</v>
+        <v>1221.3599999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.922100</v>
+        <v>-88.9221</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>20445.726076</v>
+        <v>20445.726075999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.679368</v>
+        <v>5.6793680000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1229.230000</v>
+        <v>1229.23</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.967000</v>
+        <v>-100.967</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>20456.731309</v>
+        <v>20456.731308999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>5.682425</v>
+        <v>5.6824250000000003</v>
       </c>
       <c r="AV22" s="1">
-        <v>1239.150000</v>
+        <v>1239.1500000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.355000</v>
+        <v>-120.355</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>20468.069855</v>
+        <v>20468.069855000002</v>
       </c>
       <c r="AZ22" s="1">
         <v>5.685575</v>
       </c>
       <c r="BA22" s="1">
-        <v>1247.540000</v>
+        <v>1247.54</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.849000</v>
+        <v>-137.84899999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>20479.069632</v>
+        <v>20479.069631999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.688630</v>
+        <v>5.6886299999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1287.550000</v>
+        <v>1287.55</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.644000</v>
+        <v>-219.64400000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>20489.720722</v>
+        <v>20489.720721999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.691589</v>
+        <v>5.6915889999999996</v>
       </c>
       <c r="BK22" s="1">
-        <v>1356.940000</v>
+        <v>1356.94</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.653000</v>
+        <v>-355.65300000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>20500.664484</v>
+        <v>20500.664484000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.694629</v>
+        <v>5.6946289999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1470.490000</v>
+        <v>1470.49</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-577.375000</v>
+        <v>-577.375</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>20511.310118</v>
+        <v>20511.310118000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>5.697586</v>
+        <v>5.6975860000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>1601.690000</v>
+        <v>1601.69</v>
       </c>
       <c r="BV22" s="1">
-        <v>-827.745000</v>
+        <v>-827.745</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>20522.716614</v>
+        <v>20522.716614000001</v>
       </c>
       <c r="BY22" s="1">
         <v>5.700755</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1752.900000</v>
+        <v>1752.9</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1101.210000</v>
+        <v>-1101.21</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>20536.362052</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.704545</v>
+        <v>5.7045450000000004</v>
       </c>
       <c r="CE22" s="1">
-        <v>2170.530000</v>
+        <v>2170.5300000000002</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1762.740000</v>
+        <v>-1762.74</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>20363.241386</v>
+        <v>20363.241386000002</v>
       </c>
       <c r="B23" s="1">
-        <v>5.656456</v>
+        <v>5.6564560000000004</v>
       </c>
       <c r="C23" s="1">
-        <v>1140.070000</v>
+        <v>1140.07</v>
       </c>
       <c r="D23" s="1">
-        <v>-256.966000</v>
+        <v>-256.96600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>20373.705484</v>
+        <v>20373.705483999998</v>
       </c>
       <c r="G23" s="1">
-        <v>5.659363</v>
+        <v>5.6593629999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1161.390000</v>
+        <v>1161.3900000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-215.751000</v>
+        <v>-215.751</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>20383.825358</v>
+        <v>20383.825357999998</v>
       </c>
       <c r="L23" s="1">
-        <v>5.662174</v>
+        <v>5.6621740000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>1188.080000</v>
+        <v>1188.08</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.533000</v>
+        <v>-149.53299999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>20394.382246</v>
+        <v>20394.382246000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.665106</v>
+        <v>5.6651059999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1195.760000</v>
+        <v>1195.76</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.267000</v>
+        <v>-127.267</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>20404.839858</v>
+        <v>20404.839857999999</v>
       </c>
       <c r="V23" s="1">
-        <v>5.668011</v>
+        <v>5.6680109999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1202.720000</v>
+        <v>1202.72</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.563000</v>
+        <v>-106.563</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>20415.126917</v>
+        <v>20415.126917000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.670869</v>
+        <v>5.6708689999999997</v>
       </c>
       <c r="AB23" s="1">
-        <v>1209.990000</v>
+        <v>1209.99</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.749400</v>
+        <v>-89.749399999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>20425.251224</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.673681</v>
+        <v>5.6736810000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1214.370000</v>
+        <v>1214.3699999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.406300</v>
+        <v>-85.406300000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>20435.491627</v>
+        <v>20435.491626999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.676525</v>
+        <v>5.6765249999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>1221.360000</v>
+        <v>1221.3599999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.930300</v>
+        <v>-88.930300000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>20446.098076</v>
+        <v>20446.098075999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.679472</v>
+        <v>5.6794719999999996</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1229.210000</v>
+        <v>1229.21</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.956000</v>
+        <v>-100.956</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>20457.095373</v>
       </c>
       <c r="AU23" s="1">
-        <v>5.682526</v>
+        <v>5.6825260000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>1239.130000</v>
+        <v>1239.1300000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.327000</v>
+        <v>-120.327</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>20468.485502</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.685690</v>
+        <v>5.6856900000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.834000</v>
+        <v>-137.834</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>20479.490768</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.688747</v>
+        <v>5.6887470000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1287.540000</v>
+        <v>1287.54</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.651000</v>
+        <v>-219.65100000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>20490.064449</v>
+        <v>20490.064449000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.691685</v>
+        <v>5.6916849999999997</v>
       </c>
       <c r="BK23" s="1">
-        <v>1356.870000</v>
+        <v>1356.87</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.689000</v>
+        <v>-355.68900000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>20501.085059</v>
+        <v>20501.085059000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.694746</v>
+        <v>5.6947460000000003</v>
       </c>
       <c r="BP23" s="1">
-        <v>1470.450000</v>
+        <v>1470.45</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-577.413000</v>
+        <v>-577.41300000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>20511.740118</v>
+        <v>20511.740118000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>5.697706</v>
+        <v>5.6977060000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1601.900000</v>
+        <v>1601.9</v>
       </c>
       <c r="BV23" s="1">
-        <v>-827.916000</v>
+        <v>-827.91600000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>20523.138391</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.700872</v>
+        <v>5.7008720000000004</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1752.840000</v>
+        <v>1752.84</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1101.260000</v>
+        <v>-1101.26</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>20536.899716</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.704694</v>
+        <v>5.7046939999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2169.300000</v>
+        <v>2169.3000000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1765.020000</v>
+        <v>-1765.02</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>20363.582664</v>
+        <v>20363.582664000001</v>
       </c>
       <c r="B24" s="1">
-        <v>5.656551</v>
+        <v>5.6565510000000003</v>
       </c>
       <c r="C24" s="1">
-        <v>1140.030000</v>
+        <v>1140.03</v>
       </c>
       <c r="D24" s="1">
-        <v>-256.927000</v>
+        <v>-256.92700000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>20374.049706</v>
+        <v>20374.049706000002</v>
       </c>
       <c r="G24" s="1">
-        <v>5.659458</v>
+        <v>5.6594579999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1160.960000</v>
+        <v>1160.96</v>
       </c>
       <c r="I24" s="1">
-        <v>-215.564000</v>
+        <v>-215.56399999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>20384.466685</v>
+        <v>20384.466684999999</v>
       </c>
       <c r="L24" s="1">
-        <v>5.662352</v>
+        <v>5.6623520000000003</v>
       </c>
       <c r="M24" s="1">
-        <v>1188.380000</v>
+        <v>1188.3800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.388000</v>
+        <v>-149.38800000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>20395.037956</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.665288</v>
+        <v>5.6652880000000003</v>
       </c>
       <c r="R24" s="1">
-        <v>1195.850000</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.296000</v>
+        <v>-127.29600000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>20405.222275</v>
       </c>
       <c r="V24" s="1">
-        <v>5.668117</v>
+        <v>5.6681169999999996</v>
       </c>
       <c r="W24" s="1">
-        <v>1202.750000</v>
+        <v>1202.75</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.586000</v>
+        <v>-106.586</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>20415.475076</v>
+        <v>20415.475075999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>5.670965</v>
+        <v>5.6709649999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1209.900000</v>
+        <v>1209.9000000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.685200</v>
+        <v>-89.685199999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>20425.595448</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.673777</v>
+        <v>5.6737770000000003</v>
       </c>
       <c r="AG24" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.401200</v>
+        <v>-85.401200000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>20435.840314</v>
+        <v>20435.840314000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.676622</v>
+        <v>5.6766220000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1221.390000</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.933100</v>
+        <v>-88.933099999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>20446.536539</v>
+        <v>20446.536539000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.679593</v>
+        <v>5.6795929999999997</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1229.240000</v>
+        <v>1229.24</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.962000</v>
+        <v>-100.962</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>20457.516973</v>
+        <v>20457.516973000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>5.682644</v>
+        <v>5.6826439999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1239.160000</v>
+        <v>1239.1600000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.322000</v>
+        <v>-120.322</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>20468.787565</v>
+        <v>20468.787564999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.685774</v>
+        <v>5.6857740000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1247.500000</v>
+        <v>1247.5</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.842000</v>
+        <v>-137.84200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>20479.789824</v>
+        <v>20479.789823999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.688831</v>
+        <v>5.6888310000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1287.560000</v>
+        <v>1287.56</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.644000</v>
+        <v>-219.64400000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>20490.455297</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.691793</v>
+        <v>5.6917929999999997</v>
       </c>
       <c r="BK24" s="1">
-        <v>1356.880000</v>
+        <v>1356.88</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.661000</v>
+        <v>-355.661</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>20501.484339</v>
+        <v>20501.484338999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.694857</v>
+        <v>5.6948569999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1470.500000</v>
+        <v>1470.5</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-577.385000</v>
+        <v>-577.38499999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>20512.165684</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.697824</v>
+        <v>5.6978239999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1601.830000</v>
+        <v>1601.83</v>
       </c>
       <c r="BV24" s="1">
-        <v>-828.059000</v>
+        <v>-828.05899999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>20523.595493</v>
+        <v>20523.595493000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>5.700999</v>
+        <v>5.7009990000000004</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1752.900000</v>
+        <v>1752.9</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1101.280000</v>
+        <v>-1101.28</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>20537.439331</v>
+        <v>20537.439331000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.704844</v>
+        <v>5.7048439999999996</v>
       </c>
       <c r="CE24" s="1">
-        <v>2171.560000</v>
+        <v>2171.56</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1764.160000</v>
+        <v>-1764.16</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>20364.242344</v>
+        <v>20364.242343999998</v>
       </c>
       <c r="B25" s="1">
-        <v>5.656734</v>
+        <v>5.6567340000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1140.130000</v>
+        <v>1140.1300000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-256.880000</v>
+        <v>-256.88</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>20374.695002</v>
       </c>
       <c r="G25" s="1">
-        <v>5.659638</v>
+        <v>5.6596380000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1161.640000</v>
+        <v>1161.6400000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-215.061000</v>
+        <v>-215.06100000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>20384.863485</v>
+        <v>20384.863485000002</v>
       </c>
       <c r="L25" s="1">
-        <v>5.662462</v>
+        <v>5.6624619999999997</v>
       </c>
       <c r="M25" s="1">
-        <v>1188.390000</v>
+        <v>1188.3900000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.589000</v>
+        <v>-149.589</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>20395.431248</v>
+        <v>20395.431248000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.665398</v>
+        <v>5.6653979999999997</v>
       </c>
       <c r="R25" s="1">
-        <v>1195.830000</v>
+        <v>1195.83</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.338000</v>
+        <v>-127.33799999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>20405.568482</v>
+        <v>20405.568481999999</v>
       </c>
       <c r="V25" s="1">
-        <v>5.668213</v>
+        <v>5.6682129999999997</v>
       </c>
       <c r="W25" s="1">
-        <v>1202.770000</v>
+        <v>1202.77</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.597000</v>
+        <v>-106.59699999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>20415.834179</v>
+        <v>20415.834179000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.671065</v>
+        <v>5.6710649999999996</v>
       </c>
       <c r="AB25" s="1">
-        <v>1209.880000</v>
+        <v>1209.8800000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.784300</v>
+        <v>-89.784300000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>20425.944631</v>
+        <v>20425.944630999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.673874</v>
+        <v>5.6738739999999996</v>
       </c>
       <c r="AG25" s="1">
-        <v>1214.300000</v>
+        <v>1214.3</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.487500</v>
+        <v>-85.487499999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>20436.265417</v>
+        <v>20436.265416999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.676740</v>
+        <v>5.6767399999999997</v>
       </c>
       <c r="AL25" s="1">
-        <v>1221.390000</v>
+        <v>1221.3900000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.903200</v>
+        <v>-88.903199999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>20446.816314</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.679671</v>
+        <v>5.6796709999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1229.200000</v>
+        <v>1229.2</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.965000</v>
+        <v>-100.965</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>20457.823997</v>
       </c>
       <c r="AU25" s="1">
-        <v>5.682729</v>
+        <v>5.6827290000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1239.180000</v>
+        <v>1239.18</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.322000</v>
+        <v>-120.322</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>20469.148158</v>
       </c>
       <c r="AZ25" s="1">
-        <v>5.685874</v>
+        <v>5.6858740000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1247.540000</v>
+        <v>1247.54</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.873000</v>
+        <v>-137.87299999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>20480.160830</v>
+        <v>20480.160830000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.688934</v>
+        <v>5.6889339999999997</v>
       </c>
       <c r="BF25" s="1">
-        <v>1287.570000</v>
+        <v>1287.57</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.607000</v>
+        <v>-219.607</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>20490.828289</v>
+        <v>20490.828289000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>5.691897</v>
       </c>
       <c r="BK25" s="1">
-        <v>1356.920000</v>
+        <v>1356.92</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.665000</v>
+        <v>-355.66500000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>20501.903955</v>
+        <v>20501.903955000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.694973</v>
+        <v>5.6949730000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1470.510000</v>
+        <v>1470.51</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-577.406000</v>
+        <v>-577.40599999999995</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>20512.579845</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.697939</v>
+        <v>5.6979389999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1601.910000</v>
+        <v>1601.91</v>
       </c>
       <c r="BV25" s="1">
-        <v>-828.184000</v>
+        <v>-828.18399999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>20524.012661</v>
+        <v>20524.012661000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.701115</v>
+        <v>5.7011149999999997</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1752.870000</v>
+        <v>1752.87</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1101.310000</v>
+        <v>-1101.31</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>20537.977521</v>
+        <v>20537.977521000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.704994</v>
+        <v>5.7049940000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2168.860000</v>
+        <v>2168.86</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1763.630000</v>
+        <v>-1763.63</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>20364.617287</v>
+        <v>20364.617287000001</v>
       </c>
       <c r="B26" s="1">
-        <v>5.656838</v>
+        <v>5.6568379999999996</v>
       </c>
       <c r="C26" s="1">
-        <v>1140.130000</v>
+        <v>1140.1300000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-256.850000</v>
+        <v>-256.85000000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>20375.081882</v>
+        <v>20375.081881999999</v>
       </c>
       <c r="G26" s="1">
         <v>5.659745</v>
       </c>
       <c r="H26" s="1">
-        <v>1161.510000</v>
+        <v>1161.51</v>
       </c>
       <c r="I26" s="1">
-        <v>-215.593000</v>
+        <v>-215.59299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>20385.208236</v>
+        <v>20385.208235999999</v>
       </c>
       <c r="L26" s="1">
-        <v>5.662558</v>
+        <v>5.6625579999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1188.300000</v>
+        <v>1188.3</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.378000</v>
+        <v>-149.37799999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>20395.773982</v>
+        <v>20395.773981999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.665493</v>
+        <v>5.6654929999999997</v>
       </c>
       <c r="R26" s="1">
-        <v>1195.810000</v>
+        <v>1195.81</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.324000</v>
+        <v>-127.324</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>20405.911714</v>
+        <v>20405.911714000002</v>
       </c>
       <c r="V26" s="1">
-        <v>5.668309</v>
+        <v>5.6683089999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1202.670000</v>
+        <v>1202.67</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.572000</v>
+        <v>-106.572</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>20416.242883</v>
+        <v>20416.242882999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.671179</v>
+        <v>5.6711790000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>1209.860000</v>
+        <v>1209.8599999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.851000</v>
+        <v>-89.850999999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>20426.360774</v>
+        <v>20426.360774000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.673989</v>
+        <v>5.6739889999999997</v>
       </c>
       <c r="AG26" s="1">
-        <v>1214.360000</v>
+        <v>1214.3599999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.461300</v>
+        <v>-85.461299999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>20436.544664</v>
+        <v>20436.544664000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.676818</v>
+        <v>5.6768179999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1221.350000</v>
+        <v>1221.3499999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.964300</v>
+        <v>-88.964299999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>20447.177866</v>
+        <v>20447.177866000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>5.679772</v>
+        <v>5.6797719999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1229.220000</v>
+        <v>1229.22</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.957000</v>
+        <v>-100.95699999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>20458.187100</v>
+        <v>20458.187099999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.682830</v>
+        <v>5.68283</v>
       </c>
       <c r="AV26" s="1">
-        <v>1239.160000</v>
+        <v>1239.1600000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.335000</v>
+        <v>-120.33499999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>20469.505277</v>
       </c>
       <c r="AZ26" s="1">
-        <v>5.685974</v>
+        <v>5.6859739999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1247.540000</v>
+        <v>1247.54</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.876000</v>
+        <v>-137.876</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>20480.875566</v>
+        <v>20480.875565999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>5.689132</v>
+        <v>5.6891319999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1287.550000</v>
+        <v>1287.55</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.646000</v>
+        <v>-219.64599999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>20491.580224</v>
+        <v>20491.580224000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.692106</v>
+        <v>5.6921059999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1356.900000</v>
+        <v>1356.9</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.680000</v>
+        <v>-355.68</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>20502.300755</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.695084</v>
+        <v>5.6950839999999996</v>
       </c>
       <c r="BP26" s="1">
-        <v>1470.450000</v>
+        <v>1470.45</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-577.394000</v>
+        <v>-577.39400000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>20513.008389</v>
+        <v>20513.008388999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.698058</v>
+        <v>5.6980579999999996</v>
       </c>
       <c r="BU26" s="1">
-        <v>1601.910000</v>
+        <v>1601.91</v>
       </c>
       <c r="BV26" s="1">
-        <v>-828.347000</v>
+        <v>-828.34699999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>20524.462036</v>
+        <v>20524.462036000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.701239</v>
+        <v>5.7012390000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1752.930000</v>
+        <v>1752.93</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1101.240000</v>
+        <v>-1101.24</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>20538.816753</v>
+        <v>20538.816752999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>5.705227</v>
+        <v>5.7052269999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>2171.520000</v>
+        <v>2171.52</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1763.550000</v>
+        <v>-1763.55</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>